--- a/Items.xlsx
+++ b/Items.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://viaucdk-my.sharepoint.com/personal/315231_viauc_dk/Documents/Dokumenter/GitHub/SEP3-Vibe/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="111" documentId="11_F25DC773A252ABDACC104863B15E67545ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E73AD9F9-96BF-41A4-9E79-BA7C299A67AE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,254 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+  <si>
+    <t>Stella Drop Earrings</t>
+  </si>
+  <si>
+    <t>gold-filled, Cubic Zirconia, 30mm long, handmade</t>
+  </si>
+  <si>
+    <t>stellaDropEarrings.png</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>photoName</t>
+  </si>
+  <si>
+    <t>Allium Blue Green Sapphire</t>
+  </si>
+  <si>
+    <t>5.5 Beveled Edge Matte</t>
+  </si>
+  <si>
+    <t>beveledEdgeMatteM.png</t>
+  </si>
+  <si>
+    <t>Dazzling Diamond Tennis Bracelet</t>
+  </si>
+  <si>
+    <t>dazzlingDiamondTennisBracelet.png</t>
+  </si>
+  <si>
+    <t>Diamond Letter Bracelet</t>
+  </si>
+  <si>
+    <t>diamondLetterBracelet.png</t>
+  </si>
+  <si>
+    <t>Endeavor</t>
+  </si>
+  <si>
+    <t>endeavorM.png</t>
+  </si>
+  <si>
+    <t>hommeLinkChainBracelet.png</t>
+  </si>
+  <si>
+    <t>Infinity Ring</t>
+  </si>
+  <si>
+    <t>infinityRing.png</t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>385x376</t>
+  </si>
+  <si>
+    <t>403x408</t>
+  </si>
+  <si>
+    <t>505x664</t>
+  </si>
+  <si>
+    <t>418x418</t>
+  </si>
+  <si>
+    <t>400x427</t>
+  </si>
+  <si>
+    <t>400x409</t>
+  </si>
+  <si>
+    <t>507x663</t>
+  </si>
+  <si>
+    <t>alliumBlueGrennSapphire.png</t>
+  </si>
+  <si>
+    <r>
+      <t>Large Pav</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>é Diamond Round Necklace</t>
+    </r>
+  </si>
+  <si>
+    <t>largePaveDiamondRoundNecklace</t>
+  </si>
+  <si>
+    <t>417x417</t>
+  </si>
+  <si>
+    <t>paveDiamondHuggieHoops.png</t>
+  </si>
+  <si>
+    <r>
+      <t>Pav</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>é Diamond Huggie Hoops</t>
+    </r>
+  </si>
+  <si>
+    <t>411x415</t>
+  </si>
+  <si>
+    <t>pearlAuraBeadedNecklace.png</t>
+  </si>
+  <si>
+    <t>Pearl Aura Breaded Necklace</t>
+  </si>
+  <si>
+    <t>505x660</t>
+  </si>
+  <si>
+    <t>scorpioZodiacEngravableTagPendantM.png</t>
+  </si>
+  <si>
+    <t>Scorpio Zodiac Engravable Tag Pendant</t>
+  </si>
+  <si>
+    <t>400x405</t>
+  </si>
+  <si>
+    <t>432x580</t>
+  </si>
+  <si>
+    <t>vintageEmeraldCutRing.png</t>
+  </si>
+  <si>
+    <t>Vintage Emerald Cut Ring</t>
+  </si>
+  <si>
+    <t>507x660</t>
+  </si>
+  <si>
+    <t>wishboneStackerSet.png</t>
+  </si>
+  <si>
+    <t>Wishbone Stacker Set</t>
+  </si>
+  <si>
+    <t>409x415</t>
+  </si>
+  <si>
+    <t>zekeCurbChainNecklaceM.png</t>
+  </si>
+  <si>
+    <t>Zeke Curb Chain Necklace</t>
+  </si>
+  <si>
+    <t>400x408</t>
+  </si>
+  <si>
+    <t>SmalletPic</t>
+  </si>
+  <si>
+    <t>Homme 8 in. Link Chain Bracelet</t>
+  </si>
+  <si>
+    <t>BE55500-SLV silver, fold over clasp link chain</t>
+  </si>
+  <si>
+    <t>BE5CLC85-SLV silver, lobster clasp curb chain</t>
+  </si>
+  <si>
+    <t>BE4509SC-SLV silver, 24 in.,  lobster clasp curb chain</t>
+  </si>
+  <si>
+    <t>BE2CF9335-14KR tantalum and 14K rose gold, 6.5 mm</t>
+  </si>
+  <si>
+    <t>BE225-18KW 18K white gold, with rhodium finish</t>
+  </si>
+  <si>
+    <t>AU3010, 6x4mm Emerald Gemstone x1, 1.5mm White Topaz x 6, 1.4x20x1.5 mm, 1.7g</t>
+  </si>
+  <si>
+    <t>AU2103(16.5 in), AU2106(18 in), 4 mm pearl, 14g</t>
+  </si>
+  <si>
+    <t>AU0269, 19x8x1.2 mm, 5.6g</t>
+  </si>
+  <si>
+    <t>AU4002, AU4003, AU4004, AU4117, round diamonds, 10g, box clasp closure</t>
+  </si>
+  <si>
+    <t>6.5 blue green sapphire, 5.5 mm, gold</t>
+  </si>
+  <si>
+    <t>14K gold, high-quality single cut diamonds, 12x1.2 mm</t>
+  </si>
+  <si>
+    <r>
+      <t>14K gold, 1mm, pav</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>é diamonds</t>
+    </r>
+  </si>
+  <si>
+    <t>14Kgold, high-quality single cut diamonds, 16-18 in</t>
+  </si>
+  <si>
+    <t>14K gold, 6-7 in, 6.5 mm letter size</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -330,13 +575,254 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.1796875" customWidth="1"/>
+    <col min="2" max="2" width="72.6328125" customWidth="1"/>
+    <col min="3" max="3" width="36.90625" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Items.xlsx
+++ b/Items.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://viaucdk-my.sharepoint.com/personal/315231_viauc_dk/Documents/Dokumenter/GitHub/SEP3-Vibe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programacion\SEP3-Vibe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="11_F25DC773A252ABDACC104863B15E67545ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E73AD9F9-96BF-41A4-9E79-BA7C299A67AE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0350E0-42BB-46A9-B95E-1F86949B0A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>Stella Drop Earrings</t>
   </si>
@@ -253,6 +253,181 @@
   </si>
   <si>
     <t>14K gold, 6-7 in, 6.5 mm letter size</t>
+  </si>
+  <si>
+    <t>Mogor green T shirt</t>
+  </si>
+  <si>
+    <t>The Mogor tee is as chilled as it gets. It comes with an old dye finish, to give it an authentic weathered look, which pairs well with our corduroy and flannel trousers or our sweatpants.
+It comes in an oversized fit and falls to the waist.
+Designed in Barcelona. Crafted in Portugal.
+100% organic cotton
+Pesticide free and reduced water waste
+Vegan</t>
+  </si>
+  <si>
+    <t>Monothaki Black t shirt</t>
+  </si>
+  <si>
+    <t>The Monothaki is set to be a staple in eco-friendly wardrobes everywhere. Its soft organic cotton, minimalist design and multiple colours help it slot into any outfit.
+It comes in a regular fit.
+Designed in Barcelona. Crafted in Portugal. 
+100% organic cotton
+Pesticide free and reduced water waste
+Vegan</t>
+  </si>
+  <si>
+    <t>Narotua sand t shirt</t>
+  </si>
+  <si>
+    <t>Sprinkled with colourful neps, a men's rounded v-neckline t-shirt, with printed logo on the chest. Short sleeves, slightly dropped shoulders and rounded bottom hem makes a comfy choice. 
+This is a regular fit short-sleeved t-shirt. 
+Designed in Barcelona. Crafted in Portugal. 
+98% organic cotton and 2% recycled polyester
+Avoids plastic waste
+Pesticide free and reduced water waste
+Vegan</t>
+  </si>
+  <si>
+    <t>Cook- Golden Brown</t>
+  </si>
+  <si>
+    <t>The Cook is as cosy as a shirt can be, thanks to its organic micro corduroy. It’s also remarkably soft, as well as carrying a chest pocket and “Twothirds” embroidery on the placket.
+It has side cuts, a rounded hem and regular fit.
+Designed in Barcelona. Crafted in Portugal. 
+Micro corduroy: 100% organic cotton
+Pesticide free and reduced water waste
+Recycled horn buttons</t>
+  </si>
+  <si>
+    <t>Killingq</t>
+  </si>
+  <si>
+    <t>The Killingq features an impactful print, both front and back, which catches the eye any time of year. It’s also incredibly sustainable, due to being crafted from 50% recycled fabric. 
+Designed in a regular fit, it falls to hip-length.
+Designed in Barcelona. Crafted in Portugal. 
+50% recycled cotton and 50% organic cotton
+Pesticide free and reduced water waste
+Helps to avoid fashion waste
+Vegan</t>
+  </si>
+  <si>
+    <t>The tubou</t>
+  </si>
+  <si>
+    <t>The Tubou makes for a nice change from the regular fit norm, its warm organic fabric and dropped shoulders giving a relaxed vibe that both surfers and non-surfers will love.
+This tee comes in an oversized fit.
+Designed in Barcelona. Crafted in Portugal. 
+100% organic cotton
+Pesticide free and reduced water waste
+Vegan</t>
+  </si>
+  <si>
+    <t>Razo</t>
+  </si>
+  <si>
+    <t>For mild conditions, this classic jacket is elevated by a sherpa effect collar. With dropped shoulders, lightly padded sleeves, black sherpa lining and three snap button pockets.
+This jacket is a fairly oversized fit and is cut to fall slightly below the hips.  
+Designed in Barcelona. Crafted in Portugal. 
+100% organic cotton
+Lining, padding: 100% recycled polyester 
+Pesticide free and reduced water waste
+YKK two-way zipper
+Vegan</t>
+  </si>
+  <si>
+    <t>Vaqaba-Trouser</t>
+  </si>
+  <si>
+    <t>Nothing can prepare you for how soft the Vaqava flannel trouser is. Its brushed finish is made even more appealing by rear welt pockets that are twinned with an embroidered wave motif.
+The piece comes in a regular fit.
+Designed in Barcelona. Crafted in Portugal. 
+100% organic cotton
+Pesticide free and reduced water waste
+YKK zipper
+Sustainable resin button
+Vegan</t>
+  </si>
+  <si>
+    <t>Balavu</t>
+  </si>
+  <si>
+    <t>Trust us, cords are about to be everywhere. Why not treat yourself to ones that are both organic and stylish? A simple, sleek design is complemented by two wave embroidered rear pockets.
+Coming with five pockets in total, the Balavu has a regular fit.
+Designed in Barcelona. Crafted in Portugal. 
+Micro corduroy: 100% organic cotton 
+Pesticide free and reduced water waste
+YKK zipper and embossed button
+Vegan</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Classic chinos, the fair fashion way. A rubber back waistband, snap fastener and adjustable internal drawstring added for extra comfort. Four pockets in total, one with embroidery detail.  
+A standard fit straight leg men's chino trouser, cut at ankle length. 
+Designed in Barcelona. Crafted in Portugal.
+100% organic cotton 
+Pesticide free and reduced water use
+YKK zipper
+Vegan</t>
+  </si>
+  <si>
+    <t>Chios</t>
+  </si>
+  <si>
+    <t>Sustainable chinos. 4 patch pockets - with wave embroidery on one of the back ones. A snap fastener, belt loops and a rubber back waistband adds functionality and comfort. 
+Regular fit straight cut trousers, cut at ankle length. 
+Designed in Barcelona. Crafted in Portugal.
+100% organic cotton flannel
+Pesticide free and reduced water use
+YKK zipper
+Vegan</t>
+  </si>
+  <si>
+    <t>Grotta</t>
+  </si>
+  <si>
+    <t>We bring you the Grótta sweatshirt, in an attractive shade of green. A plain and simple garment that prioritises comfort and reduced impact. Designed with a drawstring hood, ribbed edges and our logo embroidered on the chest. The hoodie comes in a regular fit and hip-length cut.
+We all have those days when throwing on a comfy and cosy jumper just makes sense, which is why we love to have the Grótta in our wardrobe. Paired with a long coat or bomber jacket, you have the finest casual fit - you can also give it a nice twist with an oversized t-shirt on top! 
+Designed in Barcelona. Crafted in Portugal.
+100% organic cotton 
+Pesticide free and reduced water waste
+Vegan</t>
+  </si>
+  <si>
+    <t>Auriol</t>
+  </si>
+  <si>
+    <t>Hoodies can comfort and warm you whether you’re at home under a blanket or out braving the elements. The Auriol is soft as snow and comes with a drawstring hood, logo, and ribbed edges.
+It has a herringbone patterned collar and regular fit.
+Designed in Barcelona. Crafted in Portugal.
+100% organic cotton
+Pesticide free and reduced water waste
+Vegan</t>
+  </si>
+  <si>
+    <t>Corn</t>
+  </si>
+  <si>
+    <t>A knit hoodie that combines the warmth and durability of wool with the refined feel of recycled plastic fabrics, the corn is a cut above. It has a drawstring hood and cosy pouch.
+It comes in a regular fit and has ribbed edges.
+Designed in Barcelona. Crafted in Portugal. 
+All recycled materials: 50% polyester, 35% wool, 15% polyamide
+Helps avoid fashion and plastic waste
+Warm and durable</t>
+  </si>
+  <si>
+    <t>Ekins</t>
+  </si>
+  <si>
+    <t>A double-breasted corduroy coat with vintage appeal. Includes foldable cuffs, lightly padded sleeves and corozo buttons plus two external pockets. Best suited for mild cold climates.  
+This casual women’s jacket is an oversized fit which falls to the thigh. 
+Designed in Barcelona. Crafted in Portugal. 
+Corduroy: 100% organic cotton
+Sleeves, lining, neck, cuffs: 100% recycled polyester 
+Pesticide free and reduced water waste
+Vegan</t>
   </si>
 </sst>
 </file>
@@ -294,8 +469,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,22 +754,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B91" sqref="B82:B91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.1796875" customWidth="1"/>
-    <col min="2" max="2" width="72.6328125" customWidth="1"/>
-    <col min="3" max="3" width="36.90625" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" customWidth="1"/>
+    <col min="1" max="1" width="34.21875" customWidth="1"/>
+    <col min="2" max="2" width="72.6640625" customWidth="1"/>
+    <col min="3" max="3" width="36.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -608,7 +786,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -625,7 +803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -639,7 +817,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -653,7 +831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -667,7 +845,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -681,7 +859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -695,7 +873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -709,7 +887,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -723,7 +901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -737,7 +915,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>31</v>
       </c>
@@ -751,7 +929,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -765,7 +943,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -779,7 +957,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>41</v>
       </c>
@@ -793,7 +971,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>44</v>
       </c>
@@ -807,7 +985,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>47</v>
       </c>
@@ -819,6 +997,126 @@
       </c>
       <c r="D61" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Items.xlsx
+++ b/Items.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programacion\SEP3-Vibe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7c4ef80be926744/Documents/GitHub/SEP3-Vibe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0350E0-42BB-46A9-B95E-1F86949B0A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="231" documentId="13_ncr:1_{6C0350E0-42BB-46A9-B95E-1F86949B0A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70C91FF4-7D62-48DF-BCFD-A1A83FFC6618}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="154">
   <si>
     <t>Stella Drop Earrings</t>
   </si>
@@ -429,12 +429,301 @@
 Pesticide free and reduced water waste
 Vegan</t>
   </si>
+  <si>
+    <t>Forest Floor Wallpaper Mural</t>
+  </si>
+  <si>
+    <t>Misty light filtering through woodland gives off a calming aesthetic and will always be
+ a good choice when looking for a wallpaper that invites a relaxing atmosphere into the 
+space. A perfect choice for a range of spaces but especially well suited to living rooms 
+and bedrooms.</t>
+  </si>
+  <si>
+    <t>*Fire Ratings: European standard en 13501 1 b-s1 d0 &amp; US Standard ASTM e84 fire rating: Class A
+*Install Method: Paste the wall, butt joined
+*Paper Type: non-woven 175 gsm, velvet matte finish
+*Environmental Credentials: PVC-free paper, printed with non-toxic inks and 100% recyclable packaging
+*Made with ethically-sourced PVC-free paper and water-based, non-toxic inks
+*100% plastic-free packaging that's fully recyclable</t>
+  </si>
+  <si>
+    <t>Braid Nook</t>
+  </si>
+  <si>
+    <t>Plaited from a plush wool blend, this petite version of our round Braid rug easily slots 
+into odd-shaped, curved or tight spaces. Assured to age beautifully, its lovely contours 
+restore a sense of calm and comfort into the home.</t>
+  </si>
+  <si>
+    <t>Fiber: Wool viscose blend
+Construction: Hand braided, coiled, stitched
+End finish: N/A
+Height: 3/8" (10 mm)
+78% Wool &amp; 17% Viscose blend, 5% Jute / 100% Cotton Backing</t>
+  </si>
+  <si>
+    <t>Reusable Fabric Gift Wrap 
+Christmas Reindeers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materials - 100% organic cotton fabric, 
+cotton cord and recycled card gift tag, 
+recycled paper wrap guide. </t>
+  </si>
+  <si>
+    <t>These reusable Christmas fabric gift wraps are the ideal zero-waste alternative to 
+wrapping paper. They are made in Britain using organic cotton and can be used over and 
+over again, passed around family and friends and can even be thrown in the washing 
+machine if needed.
+This reusable gift wrapping is printed on organic medium weight cotton and has two cotton braids attached to the corners for easy wrapping.
+A wrapping guide is included with each wrap along as well as a recycled card gift tag for the complete reusable Christmas gift wrapping pack.</t>
+  </si>
+  <si>
+    <t>fabricGiftWrap.png</t>
+  </si>
+  <si>
+    <t>Bamboo Fibre Lunchbox - Pink Coral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bamboo fibre lunchbox with pink coral design with a food grade silicone seal to keep
+ your food fresh and bamboo lid which can be used as a place to put your sandwiches. 
+This environmentally-friendly pack lunchbox is made with sustainable bamboo fibre,
+ corn starch and melamine resin.
+Comes in a blue wave gift box perfect for presents, making it a great eco gift idea. 
+Capacity - 700ml. 
+Care instructions - Dishwasher safe, non microwavable.
+It is not recommended to store liquid in this lunchbox as the wooden lid could swell up. </t>
+  </si>
+  <si>
+    <t>Materials - 50% bamboo, 25% corn starch,
+ 25% melamine resin. 
+Country of Manufacture - china. 
+Product Packaging - Cardboard.</t>
+  </si>
+  <si>
+    <t>Whale Bud Vase Air Plant Holder</t>
+  </si>
+  <si>
+    <t>A handmade ceramic whale, perfect to use as a bud vase or an air plant holder. 
+These little whales are a cheerful piece of home decor with their quirky features and nod 
+to ocean life. Each whale is handcrafted, making every one completely unique. 
+All are glazed inside making them water tight.
+Length: 10cm, Height: 5.2cm, Width: 6cm, Hole Diameter: 2.5cm.
+*Approximate Dimensions.</t>
+  </si>
+  <si>
+    <t>Materials - Stoneware clay.
+Product Packaging - eco friendly packaging.</t>
+  </si>
+  <si>
+    <t>Wildlife Collection Organic Cotton Socks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These statement socks are inspired by Scottish roots.
+Ethically made in Portugal with organic cotton, our original design brings freshness and 
+character to a boring sock drawer.
+</t>
+  </si>
+  <si>
+    <t>Machine wash
+Don’t tumble dry or iron
+78% certified organic cotton, 
+20% polyamide, 2% elastane</t>
+  </si>
+  <si>
+    <t>Birdcage Side Table</t>
+  </si>
+  <si>
+    <t>Materials:
+Recycled Coffee Chaff, 100% Recycled or
+ FSC Certified Birch Ply, Recycled Paper,
+ Non-Toxic Resin, Water-Based and Low
+ VOC Paint, Water-Based Lacquer,
+ Non-Toxic Natural Dye.</t>
+  </si>
+  <si>
+    <t>As a simple side table or a quirky plant stand, this 'birdcage' table is sure to make a 
+statement. The top is made from used coffee bean husk, a byproduct of the coffee 
+roasting industry. The edges have been wrapped in recycled handmade paper, and the 
+legs are made using either recycled birch ply (whenever available) or always FSC certified.
+Table top diametre: 40cm
+Height with legs: 70cm</t>
+  </si>
+  <si>
+    <t>Bamboo Fibre Plate - Dugong</t>
+  </si>
+  <si>
+    <t>These reusable bamboo plates are made with environmentally-friendly bamboo fibre,
+ corn starch and resin, suitable for indoor and outdoor use.
+Great for parties and picnics, they are dishwasher safe and BPA Free.
+Available in a set of 4.
+Size - 22.5cm.</t>
+  </si>
+  <si>
+    <t>Materials - Each item - 50% bamboo fibre,
+ 25% corn starch, 25% melamine binding 
+resin. 
+Product Packaging - Cardboard. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">forestWallpaper.png
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">braidNookRug.png
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whaleVase.png
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wildlifeSocks.png
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birdcageTable.png
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bambooPlate.png
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lunchBox.png
+</t>
+  </si>
+  <si>
+    <t>RESPIIN MINI JUTE BOWL SET - FIRE</t>
+  </si>
+  <si>
+    <t>A set of three sustainable jute storage nesting bowls in bright red and orange tones made 
+with azo-free dyes. Made from biodegradable and eco-friendly jute, the bowls have a 
+rustic feel with a bright contemporary look, perfect for any environmentally conscious 
+household.
+Large – H6.5 x Dia.16cm
+Medium – H6 x Dia.13.5cm
+Small – H5.5 x Dia.11cm
+Handmade in Bangladesh</t>
+  </si>
+  <si>
+    <t>Recycled Coconut Bowls &amp; Spoons Gift Set</t>
+  </si>
+  <si>
+    <t>Clean U's organic and sustainable Coconut Bowls and Spoons gift set, handmade using reclaimed coconuts that would otherwise be burned after harvest. 
+These sustainable bowls are etched by local craftsmen in the Ben Tre region of Vietnam, each bowl is handpicked from the thickest and highest quality coconuts.
+Available as a set containing - 1x Coconut Bowl &amp; Spoon or 2X Coconut Bowls and 2X Coconut Spoons.
+Care &amp; Usage - Not dishwasher safe. The coconut bowl is not suitable for hot contents due to the natural material.
+Size - Approximately W14cm x H7cm.</t>
+  </si>
+  <si>
+    <t>coconutBowls.png</t>
+  </si>
+  <si>
+    <t>Ingredients - 100% recycled coconut shells 
+and coconut wood. 
+Product packaging - 100% biodegradable 
+cardboard box with recycled shredded 
+coffee cup filler and jute string.</t>
+  </si>
+  <si>
+    <t>juteBowlSet.png</t>
+  </si>
+  <si>
+    <t>Himalayan Salt Candle Holder</t>
+  </si>
+  <si>
+    <t>Harness the benefits of a salt lamp with this 100% natural Himalayan salt tea light holder.
+Provides a warm glow from the candle when lit, creating a lovely relaxing atmosphere. Variation in colour and shape due to the natural beauty of the salt.
+Dimensions (approximately): 9cm Wide, 9cm High.</t>
+  </si>
+  <si>
+    <t>Ingredients - 100% Himalayan Salt. 
+Country of Manufacture - Pakistan. 
+Product Packaging - Recyclable 
+cardboard packaging.</t>
+  </si>
+  <si>
+    <t>candleHolder.png</t>
+  </si>
+  <si>
+    <t>Ceramic Tumbler</t>
+  </si>
+  <si>
+    <t>A unique handmade ceramic tumbler for hot and cold drinks from tea and coffee to water, juice and wine. 
+Crafted by hand, each ceramic cup is hand-thrown of fine stoneware clay and coated with ZAN+ME's own food-safe glazes. The unglazed outer surface enhances the cup’s tactile charm. 
+Care - dishwasher safe, but hand-washing recommended - do not microwave.
+Size - 9.5cm tall x 7.5cm wide. Holds - 200ml. </t>
+  </si>
+  <si>
+    <t>ceramicTumbler.png</t>
+  </si>
+  <si>
+    <t>Materials - High-fired stoneware clay 
+sourced in the UK, in-house glazes. 
+Product Packaging - Recycled paper and 
+cardboard. </t>
+  </si>
+  <si>
+    <t>Breathable Linen Bread Bag</t>
+  </si>
+  <si>
+    <t>This wonderful breathable linen bread bag, featuring a hand printed designs, is ideal for storing loaves, rolls, delicious artisan breads and patisserie. Handmade in Cornwall using natural linen with a cotton tie.
+Measures approx 42cm x 18cm x 12cm.
+Care instructions - Machine washable at 30 degrees.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breadBag.png
+</t>
+  </si>
+  <si>
+    <t>Materials - Linen &amp; Cotton. 
+Product Packaging - Paper. 
+Postage Packaging - Brown paper and 
+tissue paper - fully compostable.</t>
+  </si>
+  <si>
+    <t>Recycled Cotton Omar Seat Pad</t>
+  </si>
+  <si>
+    <t>Bring an exotic feel to any indoor or outdoor space with these sustainable seat pads 
+which has been hand crafted with recycled cotton and hand printed using traditional 
+methods from India.
+These intricately patterned seat pads are filled with 100% recycled polyester fibers and are inspired by the mystery of Moroccan windows making them an ideal choice to add a touch of eco-friendly elegance and comfort to any home or garden arrangement.
+Dimensions - 43 x 43cm.</t>
+  </si>
+  <si>
+    <t>Materials - 100% recycled cotton and 
+recycled polyester filling. 
+Product Packaging - Biodegradable cover 
+with Jute and recycled paper tag</t>
+  </si>
+  <si>
+    <t>seatPad.png</t>
+  </si>
+  <si>
+    <t>This gorgeous forest green reusable water bottle reflects the colours of nature whilst also protecting it. Made with recycled, double-walled vacuum-insulated stainless steel keeping cold drinks cold, and hot drinks hot.
+This award-winning Ocean Bottle has an anti-leak dual opening lid, either drink from the bottle or use the lid as a handy drinking cup!
+Size - 500ml.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materials - Stainless steel, BPA-free plastic, silicone rubber and ocean-bound plastic. All materials are fully recyclable. 
+Product Packaging - 100% Recycled and recyclable cardboard box. 
+Plastic free packaging.
+</t>
+  </si>
+  <si>
+    <t>Ocean Bottle - Forest Green</t>
+  </si>
+  <si>
+    <t>oceanBottle.png</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,6 +736,36 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF403730"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -457,7 +776,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -465,13 +784,99 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -754,18 +1159,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B91" sqref="B82:B91"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.21875" customWidth="1"/>
+    <col min="1" max="1" width="36.77734375" customWidth="1"/>
     <col min="2" max="2" width="72.6640625" customWidth="1"/>
     <col min="3" max="3" width="36.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
     <col min="5" max="5" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1023,7 +1428,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -1031,7 +1436,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -1039,7 +1444,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>75</v>
       </c>
@@ -1047,7 +1452,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -1055,7 +1460,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>79</v>
       </c>
@@ -1063,7 +1468,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -1071,7 +1476,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -1079,7 +1484,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -1087,7 +1492,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -1095,7 +1500,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>89</v>
       </c>
@@ -1103,7 +1508,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>91</v>
       </c>
@@ -1111,13 +1516,287 @@
         <v>92</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="157.19999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>93</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>94</v>
       </c>
+    </row>
+    <row r="77" spans="1:5" s="5" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E77" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="8" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E78" s="8">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="8" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E79" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="8" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E80" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="8" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E81" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E82" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="8" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E83" s="8">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E84" s="8">
+        <v>9</v>
+      </c>
+      <c r="F84" s="10"/>
+    </row>
+    <row r="85" spans="1:6" s="8" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E85" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="8" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E86" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E87" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="8" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E88" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E89" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="8" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E90" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="13" customFormat="1" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E91" s="13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="B93" s="2"/>
+    </row>
+    <row r="95" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="B95" s="2"/>
+    </row>
+    <row r="97" spans="2:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="B97" s="2"/>
+    </row>
+    <row r="99" spans="2:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="2:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="B100" s="2"/>
+    </row>
+    <row r="102" spans="2:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="B102" s="2"/>
+    </row>
+    <row r="104" spans="2:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="B104" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Items.xlsx
+++ b/Items.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7c4ef80be926744/Documents/GitHub/SEP3-Vibe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/802c1c42092691e2/Dokumenty/Uni/SEP/Git/SEP3-Vibe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="231" documentId="13_ncr:1_{6C0350E0-42BB-46A9-B95E-1F86949B0A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70C91FF4-7D62-48DF-BCFD-A1A83FFC6618}"/>
+  <xr:revisionPtr revIDLastSave="312" documentId="13_ncr:1_{6C0350E0-42BB-46A9-B95E-1F86949B0A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62157278-6FBE-4D4E-9EE3-D7C20D6282DF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="228">
   <si>
     <t>Stella Drop Earrings</t>
   </si>
@@ -36,15 +36,6 @@
     <t>stellaDropEarrings.png</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>photoName</t>
-  </si>
-  <si>
     <t>Allium Blue Green Sapphire</t>
   </si>
   <si>
@@ -79,9 +70,6 @@
   </si>
   <si>
     <t>infinityRing.png</t>
-  </si>
-  <si>
-    <t>Dimensions</t>
   </si>
   <si>
     <t>385x376</t>
@@ -196,9 +184,6 @@
     <t>400x408</t>
   </si>
   <si>
-    <t>SmalletPic</t>
-  </si>
-  <si>
     <t>Homme 8 in. Link Chain Bracelet</t>
   </si>
   <si>
@@ -718,12 +703,280 @@
   <si>
     <t>oceanBottle.png</t>
   </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>Price:</t>
+  </si>
+  <si>
+    <t>Expressionist Pro Mascara</t>
+  </si>
+  <si>
+    <t>Long-wear, defining and lengthening mascara</t>
+  </si>
+  <si>
+    <t>Expressionist Pro Mascara Net Wt. - 0.26 oz. (7.6g)
+Ingredients
+aqua (water), cera alba/cera alba (beeswax), c10-18 triglycerides, stearic acid, copernicia cerifera cera / copernicia cerifera (carnauba) wax, castor isostearate beeswax succinate, glyceryl stearate, glyceryl caprylate, glycerin, propanediol, glyceryl undecylenate, potassium sorbate, sodium hydroxide, xanthan gum, cellulose, tocopherol, helianthus annuus seed oil/ helianthus annuus (sunflower) seed oil.
+May Contain
+titanium dioxide (ci 77891), iron oxides (ci 77491, ci 77499).</t>
+  </si>
+  <si>
+    <t>Supernatural Stick Multi-Use Blush</t>
+  </si>
+  <si>
+    <t>Creamy, hydrating blush stick for a pop of color</t>
+  </si>
+  <si>
+    <t>Supernatural Stick Multi-Use Blush Net Wt. 0.15 oz. (4.5 g)
+Ingredients
+helianthus annuus (sunflower) seed oil/helianthus annuus seed oil, ricinus communis (castor) seed oil/ricinus communis seed oil, mica, carthamus tinctorius (safflower) seed oil/carthamus tinctorius seed oil, copernicia cerifera (carnauba) wax/copernicia cerifera cera, synthetic beeswax, castor isostearate succinate, tocopherol, polyhydroxystearic acid, caprylic/capric triglyceride, simmondsia chinensis (jojoba) seed oil/simmondsia chinensis seed oil, rosa rubiginosa seed oil, crambe abyssinica seed oil, isostearic acid, tin oxide, calendula officinalis flower extract, lecithin, polyglyceryl-3 polyricinoleate, camellia sinensis(green tea)seed oil/camellia sinensis seed oil, aloe barbadensis leaf juice, maltodextrin, potassium sorbate, sodium benzoate.
+May Contain
+titanium dioxide (ci 77891), iron oxides(ci 77491, ci 77492), red 6 lake (ci 15850), red 7 lake (ci 15850).</t>
+  </si>
+  <si>
+    <t>Bio Stick Foundation</t>
+  </si>
+  <si>
+    <t>Creamy, multi-use hydrating foundation stick</t>
+  </si>
+  <si>
+    <t>Bio Stick Foundation Net Wt. - 0.35 oz. (10g)
+Ingredients
+helianthus annuus seed oil/helianthus annuus (sunflower) seed oil, ricinus communis seed oil/ricinus communis(castor) seed oil, carthamus tinctorius seed oil/carthamus tinctorius (safflower) seed oil, copernicia cerifera cera/copernicia cerifera (carnauba) wax, synthetic beeswax, castor isostearate succinate, mica, tocopherol, polyhydroxystearic acid, caprylic/caprictriglyceride, simmondsia chinensisseed oil/simmondsia chinensis(jojoba) seed oil, rosa rubiginosa seed oil, crambe abyssinica seed oil, isostearic acid, lecithin, polyglyceryl-3 polyricinoleate, calendula officinalis flower extract, camellia sinensis seed oil/camellia sinensis (green tea) seed oil, aloe barbadensis leaf juice, maltodextrin, sodium benzoate, potassium sorbate.
+May Contain
+titanium dioxide (ci 77891), iron oxides (ci 77491,ci 77492,ci 77499).</t>
+  </si>
+  <si>
+    <t>Optimist Lipstick</t>
+  </si>
+  <si>
+    <t>Hydrating, high-pigment lipstick for long-lasting color</t>
+  </si>
+  <si>
+    <t>Optimist Lipstick Net Wt. 0.12 oz. (3.5 g)
+Ingredients
+ricinus communis seed oil/ricinus communis (castor) seed oil, jojoba esters, isostearyl isostearate, ethylhexyl palmitate, oleyl alcohol, bis-diglyceryl polyacyladipate-2, copernicia cerifera cera/copernicia cerifera (carnauba) wax, candelilla cera/euphorbia cerifera (candelilla) wax, polyglyceryl-2 triisostearate, synthetic beeswax, helianthus annuus seed wax/helianthus annuus(sunflower) seed wax, mica, tocopherol, theobroma grandiflorum seed butter, carthamus tinctoriusseed oil/carthamus tinctorius(safflower) seed oil, helianthus annus seed oil/helianthus annuus (sunflower) seed oil, acacia decurrens flower wax, polyglycerin-3, aloe barbadensis leaf juice, maltodextrin, potassium sorbate, sodium benzoate.
+May Contain
+titanium dioxide (ci 77891), iron oxides (ci 77491,ci 77492,ci 77499), red 40 lake (ci 16035), red 6 lake (ci 15850), red 7 lake (ci 15850), blue 1 lake (ci 42090), yellow 6 lake (ci 15985).</t>
+  </si>
+  <si>
+    <t>Power Palette Eyeshadow</t>
+  </si>
+  <si>
+    <t>Long-wear neutral powder eyeshadow palettes</t>
+  </si>
+  <si>
+    <t>Power Palette Eyeshadow Net Wt. 0.26 oz. (7.5 g)
+Ingredients
+mica, simmondsia chinensis seed oil/simmondsia chinensis(jojoba) seed oil, synthetic fluorphlogopite, calcium aluminum borosilicate, silica, copernicia cerifera cera/copernicia cerifera (carnauba) wax, boron nitride, sodium dehydroacetate, lauroyl lysine, vitis vinifera seed oil/vitis vinifera(grape) seed oil, tocopherol, ricinus communis seed oil/ricinus communis (castor) seed oil, olea europaea fruit oil/olea europaea(olive) fruit oil, tin oxide.
+May Contain
+iron oxides (ci 77491, ci 77499), ferric ferrocyanide (ci 77510), titanium dioxide (ci 77891), bronze powder (ci 77400), yellow 5 lake (ci 19140), red 40 lake (ci 16035), manganese violet (ci 77742), blue 1 lake (ci 42090).</t>
+  </si>
+  <si>
+    <t>Evercalm™ Ultra Comforting Rescue Mask</t>
+  </si>
+  <si>
+    <t>Fast-acting calming and intensively hydrating face mask.</t>
+  </si>
+  <si>
+    <t>aqua (water),glycerin,cetearyl alcohol,caprylyl caprylate/caprate,olus oil,lactobacillus ferment,butyrospermum,parkii (shea) butter,helianthus annus (sunflower) seed wax,simmondsia chinesis (jojoba) seed oil,cetearyl glucoside,propanediol,algae extract,cetyl alcohol,lactobacillus,alpha-glucan oligosaccharide,parfum (fragrance),tocopheryl acetate,caprylic/capric triglyceride,panthenol,carbomer,vaccinium vitas-idaea (lingonberry) seed oil,xanthan gum,arnica montana flower extract,camelina sativa seed oil,cocus nucifera (coconut) fruit extract,tocopherol,magnesium carboxymethyl beta-glucan,malachite extract,albatrellus ovinus extract,laminaria ochroleuca extract,glucose,phenoxyethanol,helianthus annuus (sunflower) seed oil,citric acid,sodium hydroxide,rosmarinus officinalis leat extract,citronellol,geraniol,limonene,linalool</t>
+  </si>
+  <si>
+    <t>Evercalm™ Global Protection Day Cream</t>
+  </si>
+  <si>
+    <t>Future-proofing day cream to immediately calm and soothe sensitive skin.</t>
+  </si>
+  <si>
+    <t>aqua (water),cetearyl alcohol,camellia oleifera seed oil,cetearyl ethylhexanoate,myristyl myristate,sesamum indicum (sesame) seed oil,glycerin,butyrospermum parkii (shea) butter,caprylic/capric triglyceride,triheptanoin,cetearyl glucoside,myristyl laurate,oryzanol,helianthus annuus (sunflower) seed oil,ethylhexylglycerin,vaccinium macrocarpon (cranberry) seed oil,bisabolol,ribes nigrum (black currant) seed oil,carbomer,hippophae rhamnoides fruit extract,citrus nobilis (mandarin orange) peel oil,tocopherol,anthemis nobilis flower oil,cinnamomum camphora linalloliferum (ho wood) leaf oil,pelargonium graveolens flower oil,phenoxyethanol,sodium dehydroacetate,pueraria lobata (kudzu) symbiosome extract,laminaria ochroleuca extract,cassia alata leaf extract,calendula officinalis flower extract,glucose,parfum (fragrance),rosmarinus officinalis (rosemary) leaf extract,lactic acid,sodium hydroxide,citronellol,geraniol,limonene,linalool</t>
+  </si>
+  <si>
+    <t>Evercalm™ Gentle Cleansing Gel</t>
+  </si>
+  <si>
+    <t>Non-drying cleanser for stressed &amp; sensitive skin.</t>
+  </si>
+  <si>
+    <t>aqua (water),glycerin,coco-glucoside,polysorbate 20,xanthan gum,panthenol,sodium lauroyl oat amino acids,inulin,citrus aurantium amara (bitter orange) flower water extract,alpha-glucan oligosaccharide,sodium carboxymethyl betaglucan,phenoxyethanol,sodium benzoate,parfum (fragrance),lactic acid,linalool</t>
+  </si>
+  <si>
+    <t>Keep Young And Beautiful™ Instant Firming Beauty Shot</t>
+  </si>
+  <si>
+    <t>Anti-aging gel serum to instantly plump and lift.</t>
+  </si>
+  <si>
+    <t>Aqua (Water), Sodium Hyaluronate, Hydroxypropyl Methylcellulose, Hydroxyacetophenone, Pullulan, Carbomer, Porphyridium Cruentum Extract, Rosa Damascena Flower Oil, Phenoxyethanol, Rosa Damascena Extract, Sodium Hydroxide, Citronellol, Geraniol</t>
+  </si>
+  <si>
+    <t>Clean Screen Mineral SPF 30 Mattifying Face Sunscreen</t>
+  </si>
+  <si>
+    <t>Silicone-free, 22% zinc oxide SPF.</t>
+  </si>
+  <si>
+    <t>aqua (water),zinc oxide,caprylic/capric triglyceride,aloe barbadensis leaf juice,glycerin,caprylyl caprylate/caprate,propanediol,arachidyl alcohol,cetearyl alcohol,coco-glucoside,oryza sativa starch,pongamia glabra seed oil,microcrystalline cellulose,behenyl alcohol,phenoxyethanol,arachidyl glucoside,isostearic acid,lecithin,polyglyceryl-3 polyricinoleate,polyhydroxystearic acid,passiflora edulis fruit extract,ethylhexylglycerin,glyceryl oleate,vaccinium macrocarpon (cranberry) seed oil,xanthan gum,cellulose gum,sodium chloride,hippophae rhamnoides oil,citrus nobilis (mandarin orange) peel oil,anthemis nobilis flower oil,cinnamomum camphora linalloliferum (ho wood) leaf oil,pelargonium graveolens flower oil,glucose,parfum (fragrance),helianthus annuus (sunflower) seed oil,tocopherol,rosmarinus officinalis (rosmary) leaf extract,hydrogenated palm glycerides citrate,citric acid,sodium hydroxide,citronellol,geraniol,limonene,linalool</t>
+  </si>
+  <si>
+    <t>rosemary mint hand and body wash</t>
+  </si>
+  <si>
+    <t>Gentle cleansing formula.
+Awakens the senses with an invigorating aroma of certified organic rosemary and peppermint with other pure flower and plant essences.</t>
+  </si>
+  <si>
+    <t>Ingredients: Water\Aqua\Eau, Ammonium Lauryl Sulfate, Propanediol, Decyl Glucoside, Sodium Hydroxypropylsulfonate Laurylglucoside Crosspolymer, Babassuamidopropyl Betaine, Sodium Chloride, Aloe Barbadensis Leaf, Rosmarinus Officinalis (Rosemary) Leaf Oil, Mentha Piperita (Peppermint) Oil, Lavandula Angustifolia (Lavender) Oil, Origanum Majorana Leaf Oil, Menthol, Alpha-Glucan Oligosaccharide, Glycerin, Tocopherol, Glycine Soja (Soybean) Oil, Glycol Distearate, Acrylates Copolymer, Citric Acid, Sodium Hydroxide, Fragrance (Parfum), Linalool, Limonene, Isoeugenol, Sodium Phytate, Phenoxyethanol, Sodium Benzoate, Potassium Sorbate &lt;ILN43582&gt;
+Please be aware that ingredient lists may change or vary from time to time. Please refer to the ingredient list on the product package you receive for the most up to date list of ingredients.</t>
+  </si>
+  <si>
+    <t>rosemary mint body lotion</t>
+  </si>
+  <si>
+    <t>A lightweight lotion with certified organic peppermint cools and revitalizes skin.
+Awakens the senses with an invigorating aroma of certified organic rosemary and peppermint with other pure flower and plant essences.</t>
+  </si>
+  <si>
+    <t>Ingredients: Water\Aqua\Eau, Coco-Caprylate/Caprate, Caprylic/Capric Triglyceride, Polyglyceryl-10 Oleate, Glyceryl Stearate, Cetyl Alcohol, Hydroxypropyl Starch Phosphate, Glycerin, Aloe Barbadensis Leaf, Alpha-Glucan Oligosaccharide, Tocopherol, Helianthus Annuus (Sunflower) Seed Oil, Sodium Pca, Capryloyl Glycine, Xanthan Gum, Menthol, Dimethicone, Peg-100 Stearate, Fragrance (Parfum), Limonene, Linalool, Isoeugenol, Sodium Gluconate, Phenoxyethanol, Sodium Benzoate &lt;ILN43960&gt;
+Please be aware that ingredient lists may change or vary from time to time. Please refer to the ingredient list on the product package you receive for the most up to date list of ingredients.</t>
+  </si>
+  <si>
+    <t>lip saver™</t>
+  </si>
+  <si>
+    <t>Nurture your lips with our soothing, moisturizing, balm containing naturally derived waxes. Delivers moisture relief to dry lips.
+refreshes with cinnamon leaf, clove and anise oils</t>
+  </si>
+  <si>
+    <t>Ingredients: Ricinus Communis (Castor) Seed Oil, Jojoba Esters, Helianthus Annuus (Sunflower) Seed Oil, Butyrospermum Parkii (Shea Butter), Euphorbia Cerifera (Candelilla) Wax\Candelilla Cera\Cire De Candelilla, Copernicia Cerifera (Carnauba) Wax\ Copernicia Cerifera Cera \Cire De Carnauba, Helianthus Annuus (Sunflower) Seed Wax, Hydrogenated Castor Oil, Tocopherol, Flavor (Aroma), Coumarin, Geraniol, Eugenol, Cinnamal, Citronellol, Linalool, Limonene, Benzyl Benzoate &lt;ILN45755&gt;
+Please be aware that ingredient lists may change or vary from time to time. Please refer to the ingredient list on the product package you receive for the most up to date list of ingredients.</t>
+  </si>
+  <si>
+    <t>aveda men pure-formance™ aroma spray</t>
+  </si>
+  <si>
+    <t>A rich, spicy, refreshing aroma comprised of kunzea, citrus and certified organic essential oils of spearmint, vetiver and lavender.</t>
+  </si>
+  <si>
+    <t>Ingredients: Alcohol Denat., Cetearyl Isononanoate, Fragrance (Parfum), Limonene, Farnesol, Eugenol, Linalool, Citronellol, Benzyl Alcohol, Citral, Benzyl Benzoate, Coumarin, Geraniol, Isoeugenol, Tocopherol &lt;ILN40786&gt;
+Please be aware that ingredient lists may change or vary from time to time. Please refer to the ingredient list on the product package you receive for the most up to date list of ingredients.</t>
+  </si>
+  <si>
+    <t>botanical repair™ strengthening shampoo</t>
+  </si>
+  <si>
+    <t>Luxuriously cleanses while helping strengthen and repair damaged hair with the power of plants*. Gently removes excess sebum, product build-up and pollution.</t>
+  </si>
+  <si>
+    <t>Ingredients: Water\Aqua\Eau, Sodium Cocoyl Isethionate, Sodium Methyl Cocoyl Taurate, Sodium Lauryl Sulfoacetate, Propanediol, Babassuamidopropyl Betaine, Sodium Hydroxypropylsulfonate Laurylglucoside Crosspolymer, Sodium Chloride, Persea Gratissima (Avocado) Oil, Plukenetia Volubilis (Sacha Inchi) Seed Oil, Camellia Oleifera (Green Tea) Seed Oil, Octyldodecyl Citrate Crosspolymer, Hydroxypropylgluconamide, Hydroxypropylammonium Gluconate, Bis-Ethyl(Isostearylimidazoline) Isostearamide, Acrylates Copolymer, Glycol Distearate, Hydroxypropyl Guar Hydroxypropyltrimonium Chloride, Benzyl Alcohol, Fragrance (Parfum), Linalool, Eugenol, Geraniol, Amyl Cinnamal, Benzyl Salicylate, Citronellol, Hydroxycitronellal, Citral, Benzyl Benzoate, Limonene, Sodium Hydroxide, Tartaric Acid, Citric Acid, Sodium Phytate, Sodium Benzoate, Potassium Sorbate, Phenoxyethanol &lt;ILN47712&gt;
+Please be aware that ingredient lists may change or vary from time to time. Please refer to the ingredient list on the product package you receive for the most up to date list of ingredients.</t>
+  </si>
+  <si>
+    <t>photoName:</t>
+  </si>
+  <si>
+    <t>Dimensions:</t>
+  </si>
+  <si>
+    <t>SmalletPic:</t>
+  </si>
+  <si>
+    <t>Ingridients:</t>
+  </si>
+  <si>
+    <t>Well_People_mascara</t>
+  </si>
+  <si>
+    <t>Well_People_blush.png</t>
+  </si>
+  <si>
+    <t>Well_People_Foundation.png</t>
+  </si>
+  <si>
+    <t>Well_People_Lipstick.png</t>
+  </si>
+  <si>
+    <t>Well_People_Palet.png</t>
+  </si>
+  <si>
+    <t>ren-mask</t>
+  </si>
+  <si>
+    <t>ren-skincare-cream.png</t>
+  </si>
+  <si>
+    <t>ren_cleanser</t>
+  </si>
+  <si>
+    <t>Ren-serum</t>
+  </si>
+  <si>
+    <t>ren-spf.png</t>
+  </si>
+  <si>
+    <t>aveda-bodywash</t>
+  </si>
+  <si>
+    <t>aveda-lotion</t>
+  </si>
+  <si>
+    <t>aveda-lipbalm</t>
+  </si>
+  <si>
+    <t>aved-aromaSpray</t>
+  </si>
+  <si>
+    <t>aveda-shampoo</t>
+  </si>
+  <si>
+    <t>660X1096</t>
+  </si>
+  <si>
+    <t>700X700</t>
+  </si>
+  <si>
+    <t>2000X2000</t>
+  </si>
+  <si>
+    <t>400X400</t>
+  </si>
+  <si>
+    <t>1000X1000</t>
+  </si>
+  <si>
+    <t>890X 686</t>
+  </si>
+  <si>
+    <t>800X800</t>
+  </si>
+  <si>
+    <t>365X686</t>
+  </si>
+  <si>
+    <t>2000X 2000</t>
+  </si>
+  <si>
+    <t>1500X1500</t>
+  </si>
+  <si>
+    <t>660X1097</t>
+  </si>
+  <si>
+    <t>330X548</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,12 +999,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF403730"/>
       <name val="Calibri"/>
@@ -767,13 +1014,38 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -834,16 +1106,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -858,29 +1128,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1159,646 +1434,1191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" zoomScale="55" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" customWidth="1"/>
-    <col min="2" max="2" width="72.6640625" customWidth="1"/>
-    <col min="3" max="3" width="36.88671875" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" customWidth="1"/>
+    <col min="2" max="2" width="32.453125" customWidth="1"/>
+    <col min="3" max="3" width="75.86328125" customWidth="1"/>
+    <col min="4" max="4" width="24.6796875" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+    <col min="8" max="8" width="77.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>2</v>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="127.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="147.5" x14ac:dyDescent="0.75">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="191.75" x14ac:dyDescent="0.75">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="177" x14ac:dyDescent="0.75">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="206.5" x14ac:dyDescent="0.75">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="162.25" x14ac:dyDescent="0.75">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="206.5" x14ac:dyDescent="0.75">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="191.75" x14ac:dyDescent="0.75">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="191.75" x14ac:dyDescent="0.75">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="177" x14ac:dyDescent="0.75">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="177" x14ac:dyDescent="0.75">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="280.25" x14ac:dyDescent="0.75">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="162.25" x14ac:dyDescent="0.75">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="191.75" x14ac:dyDescent="0.75">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="222" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="309.75" x14ac:dyDescent="0.75">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="4">
+        <v>26</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" ht="118" x14ac:dyDescent="0.75">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="7">
+        <v>455</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" ht="134.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="7">
+        <v>13</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" ht="250.75" x14ac:dyDescent="0.75">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="7">
+        <v>22</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" ht="177" x14ac:dyDescent="0.75">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="7">
+        <v>40</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" ht="103.25" x14ac:dyDescent="0.75">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="7">
+        <v>14</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" ht="206.5" x14ac:dyDescent="0.75">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="7">
+        <v>375</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" ht="132.75" x14ac:dyDescent="0.75">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39" s="7">
+        <v>9</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" ht="206.5" x14ac:dyDescent="0.75">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" s="7">
+        <v>13</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" ht="221.25" x14ac:dyDescent="0.75">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="7">
+        <v>20</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" ht="132.75" x14ac:dyDescent="0.75">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" s="7">
+        <v>13</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" ht="177" x14ac:dyDescent="0.75">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" s="7">
+        <v>19</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" ht="132.75" x14ac:dyDescent="0.75">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="7">
+        <v>24</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" ht="206.5" x14ac:dyDescent="0.75">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="7">
+        <v>20</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" ht="148.25" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46" s="11">
+        <v>40</v>
+      </c>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:8" ht="132.75" x14ac:dyDescent="0.75">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
-      </c>
-      <c r="E47" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" t="s">
+        <v>201</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G47" s="18">
+        <v>20</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="206.5" x14ac:dyDescent="0.75">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" t="s">
+        <v>202</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G48" s="18">
+        <v>22</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="191.75" x14ac:dyDescent="0.75">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D49" t="s">
+        <v>203</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G49" s="18">
+        <v>27</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="206.5" x14ac:dyDescent="0.75">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G50" s="18">
+        <v>16</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="162.25" x14ac:dyDescent="0.75">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" t="s">
+        <v>205</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G51" s="18">
+        <v>22</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="147.5" x14ac:dyDescent="0.75">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" t="s">
+        <v>206</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G52" s="18">
+        <v>50</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="162.25" x14ac:dyDescent="0.75">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D53" t="s">
+        <v>207</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G53" s="18">
+        <v>50</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="59" x14ac:dyDescent="0.75">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D54" t="s">
+        <v>208</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G54" s="18">
+        <v>37</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D55" t="s">
+        <v>209</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G55" s="18">
+        <v>62</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="177" x14ac:dyDescent="0.75">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D56" t="s">
+        <v>210</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G56" s="18">
+        <v>40</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="162.25" x14ac:dyDescent="0.75">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D57" t="s">
+        <v>211</v>
+      </c>
+      <c r="E57" t="s">
+        <v>216</v>
+      </c>
+      <c r="G57" s="18">
+        <v>26</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="132.75" x14ac:dyDescent="0.75">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D58" t="s">
+        <v>212</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G58" s="18">
+        <v>32.5</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="132.75" x14ac:dyDescent="0.75">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D59" t="s">
+        <v>213</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G59" s="18">
+        <v>16.5</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D60" t="s">
+        <v>214</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G60" s="18">
+        <v>52</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="206.5" x14ac:dyDescent="0.75">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="C48" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>16</v>
-      </c>
-      <c r="B54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" t="s">
-        <v>28</v>
-      </c>
-      <c r="D55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>31</v>
-      </c>
-      <c r="B56" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" t="s">
-        <v>33</v>
-      </c>
-      <c r="D57" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" t="s">
-        <v>53</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B61" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D61" t="s">
+        <v>215</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G61" s="18">
         <v>36</v>
       </c>
-      <c r="D58" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>41</v>
-      </c>
-      <c r="B59" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D59" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>44</v>
-      </c>
-      <c r="B60" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60" t="s">
-        <v>43</v>
-      </c>
-      <c r="D60" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B61" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61" t="s">
-        <v>46</v>
-      </c>
-      <c r="D61" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>71</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="144" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>77</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="144" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>79</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>81</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>83</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>85</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>87</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>89</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>91</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="157.19999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>93</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="5" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E77" s="5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="8" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E78" s="8">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="8" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E79" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="8" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E80" s="8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" s="8" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E81" s="8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" s="8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E82" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" s="8" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E83" s="8">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E84" s="8">
-        <v>9</v>
-      </c>
-      <c r="F84" s="10"/>
-    </row>
-    <row r="85" spans="1:6" s="8" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B85" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E85" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" s="8" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E86" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A87" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E87" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" s="8" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B88" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E88" s="8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E89" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" s="8" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E90" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" s="13" customFormat="1" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B91" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C91" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E91" s="13">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="B93" s="2"/>
-    </row>
-    <row r="95" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="B95" s="2"/>
-    </row>
-    <row r="97" spans="2:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="B97" s="2"/>
-    </row>
-    <row r="99" spans="2:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="B99" s="2"/>
-    </row>
-    <row r="100" spans="2:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="B100" s="2"/>
-    </row>
-    <row r="102" spans="2:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="B102" s="2"/>
-    </row>
-    <row r="104" spans="2:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="B104" s="2"/>
+      <c r="H61" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="157.19999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="77" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A77"/>
+    </row>
+    <row r="78" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A78"/>
+    </row>
+    <row r="79" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A79"/>
+    </row>
+    <row r="80" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A80"/>
+    </row>
+    <row r="81" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A81"/>
+    </row>
+    <row r="82" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A82"/>
+    </row>
+    <row r="83" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A83"/>
+    </row>
+    <row r="84" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A84"/>
+    </row>
+    <row r="85" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A85"/>
+    </row>
+    <row r="86" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A86"/>
+    </row>
+    <row r="87" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A87"/>
+    </row>
+    <row r="88" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A88"/>
+    </row>
+    <row r="89" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A89"/>
+    </row>
+    <row r="90" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A90"/>
+    </row>
+    <row r="91" spans="1:1" s="11" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A91"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Items.xlsx
+++ b/Items.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/802c1c42092691e2/Dokumenty/Uni/SEP/Git/SEP3-Vibe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://viaucdk-my.sharepoint.com/personal/315231_viauc_dk/Documents/Dokumenter/GitHub/SEP3-Vibe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="312" documentId="13_ncr:1_{6C0350E0-42BB-46A9-B95E-1F86949B0A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62157278-6FBE-4D4E-9EE3-D7C20D6282DF}"/>
+  <xr:revisionPtr revIDLastSave="327" documentId="13_ncr:1_{6C0350E0-42BB-46A9-B95E-1F86949B0A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{873E304C-180E-4A91-A4A8-9933B94A0881}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1110,29 +1110,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1436,46 +1433,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="55" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.81640625" customWidth="1"/>
     <col min="2" max="2" width="32.453125" customWidth="1"/>
-    <col min="3" max="3" width="75.86328125" customWidth="1"/>
-    <col min="4" max="4" width="24.6796875" customWidth="1"/>
+    <col min="3" max="3" width="75.81640625" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" customWidth="1"/>
     <col min="5" max="5" width="11.36328125" customWidth="1"/>
     <col min="6" max="6" width="10.7265625" customWidth="1"/>
     <col min="8" max="8" width="77.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1494,8 +1491,11 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1511,8 +1511,11 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1528,8 +1531,11 @@
       <c r="E4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1545,8 +1551,11 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1562,8 +1571,11 @@
       <c r="E6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1579,8 +1591,11 @@
       <c r="E7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1596,8 +1611,11 @@
       <c r="E8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1613,8 +1631,11 @@
       <c r="E9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1630,8 +1651,11 @@
       <c r="E10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1647,8 +1671,11 @@
       <c r="E11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1664,8 +1691,11 @@
       <c r="E12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1681,8 +1711,11 @@
       <c r="E13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G13">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1698,8 +1731,11 @@
       <c r="E14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1715,8 +1751,11 @@
       <c r="E15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1732,8 +1771,11 @@
       <c r="E16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="127.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="G16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="127.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1744,7 +1786,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="147.5" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1755,7 +1797,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="191.75" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1766,7 +1808,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="177" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1777,7 +1819,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="206.5" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1788,7 +1830,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="162.25" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1799,7 +1841,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="206.5" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1810,7 +1852,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="191.75" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:8" ht="145" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1821,7 +1863,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="191.75" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1832,7 +1874,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="177" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1843,7 +1885,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="177" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1854,7 +1896,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="280.25" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:8" ht="174" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1865,7 +1907,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="162.25" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1876,7 +1918,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="191.75" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1887,7 +1929,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="222" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="31" spans="1:8" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1898,7 +1940,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="309.75" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:8" ht="261" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1920,7 +1962,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="118" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1942,7 +1984,7 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" ht="134.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:8" ht="134.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1964,7 +2006,7 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" ht="250.75" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1974,7 +2016,7 @@
       <c r="C35" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="11" t="s">
         <v>102</v>
       </c>
       <c r="E35" s="6" t="s">
@@ -1986,7 +2028,7 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" ht="177" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2008,7 +2050,7 @@
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" ht="103.25" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2030,7 +2072,7 @@
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" ht="206.5" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:8" ht="145" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2052,7 +2094,7 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" ht="132.75" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2062,7 +2104,7 @@
       <c r="C39" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="11" t="s">
         <v>114</v>
       </c>
       <c r="E39" s="6" t="s">
@@ -2074,14 +2116,14 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" ht="206.5" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>123</v>
       </c>
       <c r="D40" s="7"/>
@@ -2094,14 +2136,14 @@
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8" ht="221.25" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="13" t="s">
         <v>125</v>
       </c>
       <c r="D41" s="6" t="s">
@@ -2116,17 +2158,17 @@
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" ht="132.75" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="11" t="s">
         <v>131</v>
       </c>
       <c r="E42" s="6" t="s">
@@ -2138,17 +2180,17 @@
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" ht="177" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="11" t="s">
         <v>136</v>
       </c>
       <c r="E43" s="6" t="s">
@@ -2160,17 +2202,17 @@
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8" ht="132.75" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="11" t="s">
         <v>140</v>
       </c>
       <c r="E44" s="6" t="s">
@@ -2182,17 +2224,17 @@
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="1:8" ht="206.5" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="11" t="s">
         <v>143</v>
       </c>
       <c r="E45" s="6" t="s">
@@ -2204,36 +2246,36 @@
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="1:8" ht="148.25" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="46" spans="1:8" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="10">
         <v>40</v>
       </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-    </row>
-    <row r="47" spans="1:8" ht="132.75" x14ac:dyDescent="0.75">
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="16" t="s">
         <v>153</v>
       </c>
       <c r="D47" t="s">
@@ -2242,14 +2284,14 @@
       <c r="E47" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="17">
         <v>20</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="206.5" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:8" ht="203" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2265,14 +2307,14 @@
       <c r="E48" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="17">
         <v>22</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="191.75" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:8" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2288,14 +2330,14 @@
       <c r="E49" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="17">
         <v>27</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="206.5" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:8" ht="203" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2311,14 +2353,14 @@
       <c r="E50" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="17">
         <v>16</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="162.25" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2334,14 +2376,14 @@
       <c r="E51" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="17">
         <v>22</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="147.5" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:8" ht="145" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2357,14 +2399,14 @@
       <c r="E52" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="17">
         <v>50</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="162.25" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:8" ht="174" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2380,14 +2422,14 @@
       <c r="E53" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G53" s="17">
         <v>50</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="59" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2403,14 +2445,14 @@
       <c r="E54" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="17">
         <v>37</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2426,14 +2468,14 @@
       <c r="E55" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G55" s="17">
         <v>62</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="177" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:8" ht="174" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2449,14 +2491,14 @@
       <c r="E56" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="17">
         <v>40</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="162.25" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2472,14 +2514,14 @@
       <c r="E57" t="s">
         <v>216</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G57" s="17">
         <v>26</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="132.75" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2495,14 +2537,14 @@
       <c r="E58" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="17">
         <v>32.5</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="132.75" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2518,14 +2560,14 @@
       <c r="E59" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G59" s="17">
         <v>16.5</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2541,14 +2583,14 @@
       <c r="E60" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G60" s="17">
         <v>52</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="206.5" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:8" ht="203" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2564,57 +2606,57 @@
       <c r="E61" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="G61" s="18">
+      <c r="G61" s="17">
         <v>36</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="157.19999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="77" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:1" ht="157.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="77" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78"/>
     </row>
-    <row r="79" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80"/>
     </row>
-    <row r="81" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82"/>
     </row>
-    <row r="83" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84"/>
     </row>
-    <row r="85" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86"/>
     </row>
-    <row r="87" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88"/>
     </row>
-    <row r="89" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90"/>
     </row>
-    <row r="91" spans="1:1" s="11" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="91" spans="1:1" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91"/>
     </row>
   </sheetData>

--- a/Items.xlsx
+++ b/Items.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://viaucdk-my.sharepoint.com/personal/315231_viauc_dk/Documents/Dokumenter/GitHub/SEP3-Vibe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7c4ef80be926744/Documents/GitHub/SEP3-Vibe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="327" documentId="13_ncr:1_{6C0350E0-42BB-46A9-B95E-1F86949B0A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{873E304C-180E-4A91-A4A8-9933B94A0881}"/>
+  <xr:revisionPtr revIDLastSave="338" documentId="13_ncr:1_{6C0350E0-42BB-46A9-B95E-1F86949B0A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07858635-D477-4153-9968-97ED79145D5E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="229">
   <si>
     <t>Stella Drop Earrings</t>
   </si>
@@ -440,13 +440,6 @@
 restore a sense of calm and comfort into the home.</t>
   </si>
   <si>
-    <t>Fiber: Wool viscose blend
-Construction: Hand braided, coiled, stitched
-End finish: N/A
-Height: 3/8" (10 mm)
-78% Wool &amp; 17% Viscose blend, 5% Jute / 100% Cotton Backing</t>
-  </si>
-  <si>
     <t>Reusable Fabric Gift Wrap 
 Christmas Reindeers</t>
   </si>
@@ -510,12 +503,6 @@
 </t>
   </si>
   <si>
-    <t>Machine wash
-Don’t tumble dry or iron
-78% certified organic cotton, 
-20% polyamide, 2% elastane</t>
-  </si>
-  <si>
     <t>Birdcage Side Table</t>
   </si>
   <si>
@@ -968,20 +955,42 @@
   <si>
     <t>330X548</t>
   </si>
+  <si>
+    <t xml:space="preserve">Ingredients - 100% ecological and bio-degradable jute
+</t>
+  </si>
+  <si>
+    <t>Materials:
+78% certified organic cotton, 
+20% polyamide, 2% elastane</t>
+  </si>
+  <si>
+    <t>Fiber: Wool viscose blend
+Construction: Hand braided, coiled, stitched
+78% Wool &amp; 17% Viscose blend, 5% Jute / 100% Cotton Backing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1108,48 +1117,51 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1433,46 +1445,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="55" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="55" workbookViewId="0">
+      <selection activeCell="D46" activeCellId="13" sqref="D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" customWidth="1"/>
-    <col min="2" max="2" width="32.453125" customWidth="1"/>
-    <col min="3" max="3" width="75.81640625" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" customWidth="1"/>
-    <col min="8" max="8" width="77.90625" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="3" max="3" width="75.77734375" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="8" max="8" width="77.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
       <c r="B1" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1495,7 +1507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1515,7 +1527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1535,7 +1547,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1555,7 +1567,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1575,7 +1587,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1595,7 +1607,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1615,7 +1627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1635,7 +1647,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1655,7 +1667,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1675,7 +1687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1695,7 +1707,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1715,7 +1727,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1735,7 +1747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1755,7 +1767,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1775,7 +1787,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="127.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="127.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1786,7 +1798,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1797,7 +1809,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1808,7 +1820,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1819,7 +1831,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1830,7 +1842,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1841,7 +1853,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1852,7 +1864,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="145" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1863,7 +1875,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1874,7 +1886,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1885,7 +1897,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1896,7 +1908,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="174" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1907,7 +1919,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1918,7 +1930,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1929,7 +1941,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1940,7 +1952,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="261" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1954,7 +1966,7 @@
         <v>92</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F32" s="4">
         <v>26</v>
@@ -1962,21 +1974,21 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>95</v>
+      <c r="D33" s="19" t="s">
+        <v>228</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F33" s="7">
         <v>455</v>
@@ -1984,21 +1996,21 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" ht="134.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="134.55000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="F34" s="7">
         <v>13</v>
@@ -2006,21 +2018,21 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>102</v>
-      </c>
       <c r="E35" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F35" s="7">
         <v>22</v>
@@ -2028,21 +2040,21 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="E36" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F36" s="7">
         <v>40</v>
@@ -2050,21 +2062,21 @@
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>108</v>
+      <c r="D37" s="19" t="s">
+        <v>227</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F37" s="7">
         <v>14</v>
@@ -2072,21 +2084,21 @@
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" ht="145" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>111</v>
-      </c>
       <c r="D38" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F38" s="7">
         <v>375</v>
@@ -2094,21 +2106,21 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>114</v>
-      </c>
       <c r="E39" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F39" s="7">
         <v>9</v>
@@ -2116,19 +2128,21 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>226</v>
+      </c>
       <c r="E40" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F40" s="7">
         <v>13</v>
@@ -2136,21 +2150,21 @@
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="F41" s="7">
         <v>20</v>
@@ -2158,21 +2172,21 @@
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="F42" s="7">
         <v>13</v>
@@ -2180,21 +2194,21 @@
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="F43" s="7">
         <v>19</v>
@@ -2202,21 +2216,21 @@
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="F44" s="7">
         <v>24</v>
@@ -2224,21 +2238,21 @@
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="E45" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="F45" s="7">
         <v>20</v>
@@ -2246,21 +2260,21 @@
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="1:8" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D46" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>148</v>
       </c>
       <c r="F46" s="10">
         <v>40</v>
@@ -2268,399 +2282,399 @@
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D47" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G47" s="17">
         <v>20</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="203" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D48" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G48" s="17">
         <v>22</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="188.5" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D49" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G49" s="17">
         <v>27</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="203" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D50" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G50" s="17">
         <v>16</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D51" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G51" s="17">
         <v>22</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="145" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D52" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G52" s="17">
         <v>50</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="174" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D53" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G53" s="17">
         <v>50</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G54" s="17">
         <v>37</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D55" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G55" s="17">
         <v>62</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="174" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D56" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G56" s="17">
         <v>40</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D57" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E57" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G57" s="17">
         <v>26</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D58" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G58" s="17">
         <v>32.5</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D59" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G59" s="17">
         <v>16.5</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D60" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G60" s="17">
         <v>52</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="203" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D61" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G61" s="17">
         <v>36</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" ht="157.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="77" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="157.19999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="77" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78"/>
     </row>
-    <row r="79" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80"/>
     </row>
-    <row r="81" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82"/>
     </row>
-    <row r="83" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84"/>
     </row>
-    <row r="85" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86"/>
     </row>
-    <row r="87" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88"/>
     </row>
-    <row r="89" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90"/>
     </row>
-    <row r="91" spans="1:1" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Items.xlsx
+++ b/Items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7c4ef80be926744/Documents/GitHub/SEP3-Vibe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://viaucdk-my.sharepoint.com/personal/315231_viauc_dk/Documents/Dokumenter/GitHub/SEP3-Vibe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="338" documentId="13_ncr:1_{6C0350E0-42BB-46A9-B95E-1F86949B0A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07858635-D477-4153-9968-97ED79145D5E}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{8307C4C3-7522-4854-8E23-AA87D72026EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF55BF4D-1B5E-4AF9-BE44-591A62475DDA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="255">
   <si>
     <t>Stella Drop Earrings</t>
   </si>
@@ -243,193 +243,49 @@
     <t>Mogor green T shirt</t>
   </si>
   <si>
-    <t>The Mogor tee is as chilled as it gets. It comes with an old dye finish, to give it an authentic weathered look, which pairs well with our corduroy and flannel trousers or our sweatpants.
-It comes in an oversized fit and falls to the waist.
-Designed in Barcelona. Crafted in Portugal.
-100% organic cotton
-Pesticide free and reduced water waste
-Vegan</t>
-  </si>
-  <si>
     <t>Monothaki Black t shirt</t>
   </si>
   <si>
-    <t>The Monothaki is set to be a staple in eco-friendly wardrobes everywhere. Its soft organic cotton, minimalist design and multiple colours help it slot into any outfit.
-It comes in a regular fit.
-Designed in Barcelona. Crafted in Portugal. 
-100% organic cotton
-Pesticide free and reduced water waste
-Vegan</t>
-  </si>
-  <si>
     <t>Narotua sand t shirt</t>
   </si>
   <si>
-    <t>Sprinkled with colourful neps, a men's rounded v-neckline t-shirt, with printed logo on the chest. Short sleeves, slightly dropped shoulders and rounded bottom hem makes a comfy choice. 
-This is a regular fit short-sleeved t-shirt. 
-Designed in Barcelona. Crafted in Portugal. 
-98% organic cotton and 2% recycled polyester
-Avoids plastic waste
-Pesticide free and reduced water waste
-Vegan</t>
-  </si>
-  <si>
     <t>Cook- Golden Brown</t>
   </si>
   <si>
-    <t>The Cook is as cosy as a shirt can be, thanks to its organic micro corduroy. It’s also remarkably soft, as well as carrying a chest pocket and “Twothirds” embroidery on the placket.
-It has side cuts, a rounded hem and regular fit.
-Designed in Barcelona. Crafted in Portugal. 
-Micro corduroy: 100% organic cotton
-Pesticide free and reduced water waste
-Recycled horn buttons</t>
-  </si>
-  <si>
     <t>Killingq</t>
   </si>
   <si>
-    <t>The Killingq features an impactful print, both front and back, which catches the eye any time of year. It’s also incredibly sustainable, due to being crafted from 50% recycled fabric. 
-Designed in a regular fit, it falls to hip-length.
-Designed in Barcelona. Crafted in Portugal. 
-50% recycled cotton and 50% organic cotton
-Pesticide free and reduced water waste
-Helps to avoid fashion waste
-Vegan</t>
-  </si>
-  <si>
     <t>The tubou</t>
   </si>
   <si>
-    <t>The Tubou makes for a nice change from the regular fit norm, its warm organic fabric and dropped shoulders giving a relaxed vibe that both surfers and non-surfers will love.
-This tee comes in an oversized fit.
-Designed in Barcelona. Crafted in Portugal. 
-100% organic cotton
-Pesticide free and reduced water waste
-Vegan</t>
-  </si>
-  <si>
     <t>Razo</t>
   </si>
   <si>
-    <t>For mild conditions, this classic jacket is elevated by a sherpa effect collar. With dropped shoulders, lightly padded sleeves, black sherpa lining and three snap button pockets.
-This jacket is a fairly oversized fit and is cut to fall slightly below the hips.  
-Designed in Barcelona. Crafted in Portugal. 
-100% organic cotton
-Lining, padding: 100% recycled polyester 
-Pesticide free and reduced water waste
-YKK two-way zipper
-Vegan</t>
-  </si>
-  <si>
     <t>Vaqaba-Trouser</t>
   </si>
   <si>
-    <t>Nothing can prepare you for how soft the Vaqava flannel trouser is. Its brushed finish is made even more appealing by rear welt pockets that are twinned with an embroidered wave motif.
-The piece comes in a regular fit.
-Designed in Barcelona. Crafted in Portugal. 
-100% organic cotton
-Pesticide free and reduced water waste
-YKK zipper
-Sustainable resin button
-Vegan</t>
-  </si>
-  <si>
     <t>Balavu</t>
   </si>
   <si>
-    <t>Trust us, cords are about to be everywhere. Why not treat yourself to ones that are both organic and stylish? A simple, sleek design is complemented by two wave embroidered rear pockets.
-Coming with five pockets in total, the Balavu has a regular fit.
-Designed in Barcelona. Crafted in Portugal. 
-Micro corduroy: 100% organic cotton 
-Pesticide free and reduced water waste
-YKK zipper and embossed button
-Vegan</t>
-  </si>
-  <si>
     <t>Tuvalu</t>
   </si>
   <si>
-    <t>Classic chinos, the fair fashion way. A rubber back waistband, snap fastener and adjustable internal drawstring added for extra comfort. Four pockets in total, one with embroidery detail.  
-A standard fit straight leg men's chino trouser, cut at ankle length. 
-Designed in Barcelona. Crafted in Portugal.
-100% organic cotton 
-Pesticide free and reduced water use
-YKK zipper
-Vegan</t>
-  </si>
-  <si>
     <t>Chios</t>
   </si>
   <si>
-    <t>Sustainable chinos. 4 patch pockets - with wave embroidery on one of the back ones. A snap fastener, belt loops and a rubber back waistband adds functionality and comfort. 
-Regular fit straight cut trousers, cut at ankle length. 
-Designed in Barcelona. Crafted in Portugal.
-100% organic cotton flannel
-Pesticide free and reduced water use
-YKK zipper
-Vegan</t>
-  </si>
-  <si>
     <t>Grotta</t>
   </si>
   <si>
-    <t>We bring you the Grótta sweatshirt, in an attractive shade of green. A plain and simple garment that prioritises comfort and reduced impact. Designed with a drawstring hood, ribbed edges and our logo embroidered on the chest. The hoodie comes in a regular fit and hip-length cut.
-We all have those days when throwing on a comfy and cosy jumper just makes sense, which is why we love to have the Grótta in our wardrobe. Paired with a long coat or bomber jacket, you have the finest casual fit - you can also give it a nice twist with an oversized t-shirt on top! 
-Designed in Barcelona. Crafted in Portugal.
-100% organic cotton 
-Pesticide free and reduced water waste
-Vegan</t>
-  </si>
-  <si>
     <t>Auriol</t>
   </si>
   <si>
-    <t>Hoodies can comfort and warm you whether you’re at home under a blanket or out braving the elements. The Auriol is soft as snow and comes with a drawstring hood, logo, and ribbed edges.
-It has a herringbone patterned collar and regular fit.
-Designed in Barcelona. Crafted in Portugal.
-100% organic cotton
-Pesticide free and reduced water waste
-Vegan</t>
-  </si>
-  <si>
     <t>Corn</t>
   </si>
   <si>
-    <t>A knit hoodie that combines the warmth and durability of wool with the refined feel of recycled plastic fabrics, the corn is a cut above. It has a drawstring hood and cosy pouch.
-It comes in a regular fit and has ribbed edges.
-Designed in Barcelona. Crafted in Portugal. 
-All recycled materials: 50% polyester, 35% wool, 15% polyamide
-Helps avoid fashion and plastic waste
-Warm and durable</t>
-  </si>
-  <si>
     <t>Ekins</t>
   </si>
   <si>
-    <t>A double-breasted corduroy coat with vintage appeal. Includes foldable cuffs, lightly padded sleeves and corozo buttons plus two external pockets. Best suited for mild cold climates.  
-This casual women’s jacket is an oversized fit which falls to the thigh. 
-Designed in Barcelona. Crafted in Portugal. 
-Corduroy: 100% organic cotton
-Sleeves, lining, neck, cuffs: 100% recycled polyester 
-Pesticide free and reduced water waste
-Vegan</t>
-  </si>
-  <si>
     <t>Forest Floor Wallpaper Mural</t>
-  </si>
-  <si>
-    <t>Misty light filtering through woodland gives off a calming aesthetic and will always be
- a good choice when looking for a wallpaper that invites a relaxing atmosphere into the 
-space. A perfect choice for a range of spaces but especially well suited to living rooms 
-and bedrooms.</t>
-  </si>
-  <si>
-    <t>*Fire Ratings: European standard en 13501 1 b-s1 d0 &amp; US Standard ASTM e84 fire rating: Class A
-*Install Method: Paste the wall, butt joined
-*Paper Type: non-woven 175 gsm, velvet matte finish
-*Environmental Credentials: PVC-free paper, printed with non-toxic inks and 100% recyclable packaging
-*Made with ethically-sourced PVC-free paper and water-based, non-toxic inks
-*100% plastic-free packaging that's fully recyclable</t>
   </si>
   <si>
     <t>Braid Nook</t>
@@ -442,11 +298,6 @@
   <si>
     <t>Reusable Fabric Gift Wrap 
 Christmas Reindeers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Materials - 100% organic cotton fabric, 
-cotton cord and recycled card gift tag, 
-recycled paper wrap guide. </t>
   </si>
   <si>
     <t>These reusable Christmas fabric gift wraps are the ideal zero-waste alternative to 
@@ -463,22 +314,6 @@
     <t>Bamboo Fibre Lunchbox - Pink Coral</t>
   </si>
   <si>
-    <t xml:space="preserve">Bamboo fibre lunchbox with pink coral design with a food grade silicone seal to keep
- your food fresh and bamboo lid which can be used as a place to put your sandwiches. 
-This environmentally-friendly pack lunchbox is made with sustainable bamboo fibre,
- corn starch and melamine resin.
-Comes in a blue wave gift box perfect for presents, making it a great eco gift idea. 
-Capacity - 700ml. 
-Care instructions - Dishwasher safe, non microwavable.
-It is not recommended to store liquid in this lunchbox as the wooden lid could swell up. </t>
-  </si>
-  <si>
-    <t>Materials - 50% bamboo, 25% corn starch,
- 25% melamine resin. 
-Country of Manufacture - china. 
-Product Packaging - Cardboard.</t>
-  </si>
-  <si>
     <t>Whale Bud Vase Air Plant Holder</t>
   </si>
   <si>
@@ -490,10 +325,6 @@
 *Approximate Dimensions.</t>
   </si>
   <si>
-    <t>Materials - Stoneware clay.
-Product Packaging - eco friendly packaging.</t>
-  </si>
-  <si>
     <t>Wildlife Collection Organic Cotton Socks</t>
   </si>
   <si>
@@ -504,14 +335,6 @@
   </si>
   <si>
     <t>Birdcage Side Table</t>
-  </si>
-  <si>
-    <t>Materials:
-Recycled Coffee Chaff, 100% Recycled or
- FSC Certified Birch Ply, Recycled Paper,
- Non-Toxic Resin, Water-Based and Low
- VOC Paint, Water-Based Lacquer,
- Non-Toxic Natural Dye.</t>
   </si>
   <si>
     <t>As a simple side table or a quirky plant stand, this 'birdcage' table is sure to make a 
@@ -530,12 +353,6 @@
 Great for parties and picnics, they are dishwasher safe and BPA Free.
 Available in a set of 4.
 Size - 22.5cm.</t>
-  </si>
-  <si>
-    <t>Materials - Each item - 50% bamboo fibre,
- 25% corn starch, 25% melamine binding 
-resin. 
-Product Packaging - Cardboard. </t>
   </si>
   <si>
     <t xml:space="preserve">forestWallpaper.png
@@ -592,13 +409,6 @@
     <t>coconutBowls.png</t>
   </si>
   <si>
-    <t>Ingredients - 100% recycled coconut shells 
-and coconut wood. 
-Product packaging - 100% biodegradable 
-cardboard box with recycled shredded 
-coffee cup filler and jute string.</t>
-  </si>
-  <si>
     <t>juteBowlSet.png</t>
   </si>
   <si>
@@ -608,12 +418,6 @@
     <t>Harness the benefits of a salt lamp with this 100% natural Himalayan salt tea light holder.
 Provides a warm glow from the candle when lit, creating a lovely relaxing atmosphere. Variation in colour and shape due to the natural beauty of the salt.
 Dimensions (approximately): 9cm Wide, 9cm High.</t>
-  </si>
-  <si>
-    <t>Ingredients - 100% Himalayan Salt. 
-Country of Manufacture - Pakistan. 
-Product Packaging - Recyclable 
-cardboard packaging.</t>
   </si>
   <si>
     <t>candleHolder.png</t>
@@ -631,12 +435,6 @@
     <t>ceramicTumbler.png</t>
   </si>
   <si>
-    <t>Materials - High-fired stoneware clay 
-sourced in the UK, in-house glazes. 
-Product Packaging - Recycled paper and 
-cardboard. </t>
-  </si>
-  <si>
     <t>Breathable Linen Bread Bag</t>
   </si>
   <si>
@@ -647,12 +445,6 @@
   <si>
     <t xml:space="preserve">breadBag.png
 </t>
-  </si>
-  <si>
-    <t>Materials - Linen &amp; Cotton. 
-Product Packaging - Paper. 
-Postage Packaging - Brown paper and 
-tissue paper - fully compostable.</t>
   </si>
   <si>
     <t>Recycled Cotton Omar Seat Pad</t>
@@ -665,24 +457,12 @@
 Dimensions - 43 x 43cm.</t>
   </si>
   <si>
-    <t>Materials - 100% recycled cotton and 
-recycled polyester filling. 
-Product Packaging - Biodegradable cover 
-with Jute and recycled paper tag</t>
-  </si>
-  <si>
     <t>seatPad.png</t>
   </si>
   <si>
     <t>This gorgeous forest green reusable water bottle reflects the colours of nature whilst also protecting it. Made with recycled, double-walled vacuum-insulated stainless steel keeping cold drinks cold, and hot drinks hot.
 This award-winning Ocean Bottle has an anti-leak dual opening lid, either drink from the bottle or use the lid as a handy drinking cup!
 Size - 500ml.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Materials - Stainless steel, BPA-free plastic, silicone rubber and ocean-bound plastic. All materials are fully recyclable. 
-Product Packaging - 100% Recycled and recyclable cardboard box. 
-Plastic free packaging.
-</t>
   </si>
   <si>
     <t>Ocean Bottle - Forest Green</t>
@@ -872,9 +652,6 @@
     <t>SmalletPic:</t>
   </si>
   <si>
-    <t>Ingridients:</t>
-  </si>
-  <si>
     <t>Well_People_mascara</t>
   </si>
   <si>
@@ -956,18 +733,293 @@
     <t>330X548</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingredients - 100% ecological and bio-degradable jute
-</t>
-  </si>
-  <si>
-    <t>Materials:
-78% certified organic cotton, 
+    <t>Ingredients:</t>
+  </si>
+  <si>
+    <t>100% organic cotton</t>
+  </si>
+  <si>
+    <t>The Mogor tee is as chilled as it gets. It comes with an old dye finish, to give it an authentic weathered look, which pairs well with our corduroy and flannel trousers or our sweatpants.
+It comes in an oversized fit and falls to the waist.
+Designed in Barcelona. Crafted in Portugal.
+Pesticide free and reduced water waste
+Vegan</t>
+  </si>
+  <si>
+    <t>The Monothaki is set to be a staple in eco-friendly wardrobes everywhere. Its soft organic cotton, minimalist design and multiple colours help it slot into any outfit.
+It comes in a regular fit.
+Designed in Barcelona. Crafted in Portugal. 
+Pesticide free and reduced water waste
+Vegan</t>
+  </si>
+  <si>
+    <t>Sprinkled with colourful neps, a men's rounded v-neckline t-shirt, with printed logo on the chest. Short sleeves, slightly dropped shoulders and rounded bottom hem makes a comfy choice. 
+This is a regular fit short-sleeved t-shirt. 
+Designed in Barcelona. Crafted in Portugal. 
+Avoids plastic waste
+Pesticide free and reduced water waste
+Vegan</t>
+  </si>
+  <si>
+    <t>98% organic cotton and 2% recycled polyester</t>
+  </si>
+  <si>
+    <t>The Cook is as cosy as a shirt can be, thanks to its organic micro corduroy. It’s also remarkably soft, as well as carrying a chest pocket and “Twothirds” embroidery on the placket.
+It has side cuts, a rounded hem and regular fit.
+Designed in Barcelona. Crafted in Portugal. 
+Pesticide free and reduced water waste
+Recycled horn buttons</t>
+  </si>
+  <si>
+    <t>Micro corduroy: 100% organic cotton</t>
+  </si>
+  <si>
+    <t>The Tubou makes for a nice change from the regular fit norm, its warm organic fabric and dropped shoulders giving a relaxed vibe that both surfers and non-surfers will love.
+This tee comes in an oversized fit.
+Designed in Barcelona. Crafted in Portugal. 
+Pesticide free and reduced water waste
+Vegan</t>
+  </si>
+  <si>
+    <t>The Killingq features an impactful print, both front and back, which catches the eye any time of year. It’s also incredibly sustainable, due to being crafted from 50% recycled fabric. 
+Designed in a regular fit, it falls to hip-length.
+Designed in Barcelona. Crafted in Portugal. 
+Pesticide free and reduced water waste
+Helps to avoid fashion waste
+Vegan</t>
+  </si>
+  <si>
+    <t>50% recycled cotton and 50% organic cotton</t>
+  </si>
+  <si>
+    <t>For mild conditions, this classic jacket is elevated by a sherpa effect collar. With dropped shoulders, lightly padded sleeves, black sherpa lining and three snap button pockets.
+This jacket is a fairly oversized fit and is cut to fall slightly below the hips.  
+Designed in Barcelona. Crafted in Portugal. 
+Pesticide free and reduced water waste
+YKK two-way zipper
+Vegan</t>
+  </si>
+  <si>
+    <t>100% organic cotton Lining, padding: 100% recycled polyester </t>
+  </si>
+  <si>
+    <t>Nothing can prepare you for how soft the Vaqava flannel trouser is. Its brushed finish is made even more appealing by rear welt pockets that are twinned with an embroidered wave motif.
+The piece comes in a regular fit.
+Designed in Barcelona. Crafted in Portugal. 
+Pesticide free and reduced water waste
+YKK zipper
+Sustainable resin button
+Vegan</t>
+  </si>
+  <si>
+    <t>Trust us, cords are about to be everywhere. Why not treat yourself to ones that are both organic and stylish? A simple, sleek design is complemented by two wave embroidered rear pockets.
+Coming with five pockets in total, the Balavu has a regular fit.
+Designed in Barcelona. Crafted in Portugal. 
+Pesticide free and reduced water waste
+YKK zipper and embossed button
+Vegan</t>
+  </si>
+  <si>
+    <t>Micro corduroy: 100% organic cotton </t>
+  </si>
+  <si>
+    <t>Classic chinos, the fair fashion way. A rubber back waistband, snap fastener and adjustable internal drawstring added for extra comfort. Four pockets in total, one with embroidery detail.  
+A standard fit straight leg men's chino trouser, cut at ankle length. 
+Designed in Barcelona. Crafted in Portugal.
+Pesticide free and reduced water use
+YKK zipper
+Vegan</t>
+  </si>
+  <si>
+    <t>100% organic cotton </t>
+  </si>
+  <si>
+    <t>Sustainable chinos. 4 patch pockets - with wave embroidery on one of the back ones. A snap fastener, belt loops and a rubber back waistband adds functionality and comfort. 
+Regular fit straight cut trousers, cut at ankle length. 
+Designed in Barcelona. Crafted in Portugal.
+Pesticide free and reduced water use
+YKK zipper
+Vegan</t>
+  </si>
+  <si>
+    <t>100% organic cotton flannel</t>
+  </si>
+  <si>
+    <t>We bring you the Grótta sweatshirt, in an attractive shade of green. A plain and simple garment that prioritises comfort and reduced impact. Designed with a drawstring hood, ribbed edges and our logo embroidered on the chest. The hoodie comes in a regular fit and hip-length cut.
+We all have those days when throwing on a comfy and cosy jumper just makes sense, which is why we love to have the Grótta in our wardrobe. Paired with a long coat or bomber jacket, you have the finest casual fit - you can also give it a nice twist with an oversized t-shirt on top! 
+Designed in Barcelona. Crafted in Portugal. 
+Pesticide free and reduced water waste
+Vegan</t>
+  </si>
+  <si>
+    <t>Hoodies can comfort and warm you whether you’re at home under a blanket or out braving the elements. The Auriol is soft as snow and comes with a drawstring hood, logo, and ribbed edges.
+It has a herringbone patterned collar and regular fit.
+Designed in Barcelona. Crafted in Portugal.
+Pesticide free and reduced water waste
+Vegan</t>
+  </si>
+  <si>
+    <t>A knit hoodie that combines the warmth and durability of wool with the refined feel of recycled plastic fabrics, the corn is a cut above. It has a drawstring hood and cosy pouch.
+It comes in a regular fit and has ribbed edges.
+Designed in Barcelona. Crafted in Portugal. 
+Helps avoid fashion and plastic waste
+Warm and durable</t>
+  </si>
+  <si>
+    <t>All recycled materials: 50% polyester, 35% wool, 15% polyamide</t>
+  </si>
+  <si>
+    <t>A double-breasted corduroy coat with vintage appeal. Includes foldable cuffs, lightly padded sleeves and corozo buttons plus two external pockets. Best suited for mild cold climates.  
+This casual women’s jacket is an oversized fit which falls to the thigh. 
+Designed in Barcelona. Crafted in Portugal. 
+Sleeves, lining, neck, cuffs: 100% recycled polyester 
+Pesticide free and reduced water waste
+Vegan</t>
+  </si>
+  <si>
+    <t>Corduroy: 100% organic cotton</t>
+  </si>
+  <si>
+    <t>Ethically-sourced PVC-free paper and water-based, non-toxic inks</t>
+  </si>
+  <si>
+    <t>100% organic cotton fabric, cotton cord and recycled card gift tag, - Recycled Paper Wrap Guide</t>
+  </si>
+  <si>
+    <t>78% certified organic cotton, 
 20% polyamide, 2% elastane</t>
   </si>
   <si>
-    <t>Fiber: Wool viscose blend
+    <t>Recycled Coffee Chaff, 100% Recycled or
+ FSC Certified Birch Ply, Recycled Paper,
+ Non-Toxic Resin, Water-Based and Low
+ VOC Paint, Water-Based Lacquer,
+ Non-Toxic Natural Dye.</t>
+  </si>
+  <si>
+    <t>Each item - 50% bamboo fibre,
+ 25% corn starch, 25% melamine binding 
+resin. 
+Product Packaging - Cardboard. </t>
+  </si>
+  <si>
+    <t>100% ecological and bio-degradable jute</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 100% recycled coconut shells 
+and coconut wood. 
+Product packaging - 100% biodegradable 
+cardboard box with recycled shredded 
+coffee cup filler and jute string</t>
+  </si>
+  <si>
+    <t>100% Himalayan Salt. 
+Country of Manufacture - Pakistan. 
+Product Packaging - Recyclable 
+cardboard packaging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> High-fired stoneware clay 
+sourced in the UK, in-house glazes. 
+Product Packaging - Recycled paper and 
+cardboard. </t>
+  </si>
+  <si>
+    <t>Linen &amp; Cotton. 
+Product Packaging - Paper. 
+Postage Packaging - Brown paper and 
+tissue paper - fully compostable.</t>
+  </si>
+  <si>
+    <t>100% recycled cotton and 
+recycled polyester filling. 
+Product Packaging - Biodegradable cover 
+with Jute and recycled paper tag</t>
+  </si>
+  <si>
+    <t>Stainless steel, BPA-free plastic, silicone rubber and ocean-bound plastic. All materials are fully recyclable. 
+Product Packaging - 100% Recycled and recyclable cardboard box. 
+Plastic free packaging.</t>
+  </si>
+  <si>
+    <t>Misty light filtering through woodland gives off a calming aesthetic and will always be
+ a good choice when looking for a wallpaper that invites a relaxing atmosphere into the 
+space. A perfect choice for a range of spaces but especially well suited to living rooms 
+and bedrooms.*Fire Ratings: European standard en 13501 1 b-s1 d0 &amp; US Standard ASTM e84 fire rating: Class A
+*Install Method: Paste the wall, butt joined
+*Paper Type: non-woven 175 gsm, velvet matte finish. *Environmental Credentials: PVC-free paper, printed with non-toxic inks and 100% recyclable packaging
+*100% plastic-free packaging that's fully recyclable</t>
+  </si>
+  <si>
+    <t>78% Wool &amp; 17% Viscose blend, 5% Jute / 100% Cotton Backing  Fiber: Wool viscose blend
 Construction: Hand braided, coiled, stitched
-78% Wool &amp; 17% Viscose blend, 5% Jute / 100% Cotton Backing</t>
+"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bamboo fibre lunchbox with pink coral design with a food grade silicone seal to keep
+ your food fresh and bamboo lid which can be used as a place to put your sandwiches. 
+This environmentally-friendly pack lunchbox is made with sustainable bamboo fibre,
+ corn starch and melamine resin.
+Comes in a blue wave gift box perfect for presents, making it a great eco gift idea. 
+Capacity - 700ml. 
+Care instructions - Dishwasher safe, non microwavable.
+It is not recommended to store liquid in this lunchbox as the wooden lid could swell up. 
+Country of Manufacture - China. </t>
+  </si>
+  <si>
+    <t>50% bamboo, 25% corn starch, 25% melamine resin. Product Packaging - Cardboard.</t>
+  </si>
+  <si>
+    <t>Stoneware clay. 
+Product Packaging - eco friendly packaging.</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>gold, blue green sapphire</t>
+  </si>
+  <si>
+    <t>gold, rhodium</t>
+  </si>
+  <si>
+    <t>gold, diamond</t>
+  </si>
+  <si>
+    <t>tantalum, rose gold</t>
+  </si>
+  <si>
+    <t>steel, diamond</t>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steel </t>
+  </si>
+  <si>
+    <t>silver, pearl</t>
+  </si>
+  <si>
+    <t>steel, emeratld gemstone, white topaz</t>
+  </si>
+  <si>
+    <t>1588x1059</t>
+  </si>
+  <si>
+    <t>1300x1733</t>
+  </si>
+  <si>
+    <t>1280x1280</t>
+  </si>
+  <si>
+    <t>1024x1024</t>
+  </si>
+  <si>
+    <t>1920x2880</t>
+  </si>
+  <si>
+    <t>1000x1000</t>
   </si>
 </sst>
 </file>
@@ -975,9 +1027,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1006,14 +1058,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF403730"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1117,9 +1161,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1142,26 +1186,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1445,46 +1492,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="55" workbookViewId="0">
-      <selection activeCell="D46" activeCellId="13" sqref="D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1"/>
-    <col min="3" max="3" width="75.77734375" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
-    <col min="8" max="8" width="77.88671875" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" customWidth="1"/>
+    <col min="2" max="2" width="32.453125" customWidth="1"/>
+    <col min="3" max="3" width="75.81640625" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" customWidth="1"/>
+    <col min="8" max="8" width="77.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" s="18" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1506,8 +1553,11 @@
       <c r="G2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1526,8 +1576,11 @@
       <c r="G3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1546,8 +1599,11 @@
       <c r="G4">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1566,8 +1622,11 @@
       <c r="G5">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1586,8 +1645,11 @@
       <c r="G6">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1606,8 +1668,11 @@
       <c r="G7">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1626,8 +1691,11 @@
       <c r="G8">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1646,8 +1714,11 @@
       <c r="G9">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1666,8 +1737,11 @@
       <c r="G10">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1686,8 +1760,11 @@
       <c r="G11">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1706,8 +1783,11 @@
       <c r="G12">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1726,8 +1806,11 @@
       <c r="G13">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1746,8 +1829,11 @@
       <c r="G14">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1766,8 +1852,11 @@
       <c r="G15">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1786,8 +1875,11 @@
       <c r="G16">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="127.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="127.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1795,886 +1887,992 @@
         <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="G17">
+        <v>49</v>
+      </c>
+      <c r="H17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="G18">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="G19">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+      <c r="G20">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+      <c r="G21">
+        <v>74</v>
+      </c>
+      <c r="H21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+      <c r="G23">
+        <v>45</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+      <c r="G24">
+        <v>86</v>
+      </c>
+      <c r="H24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="G25">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="G26">
+        <v>43</v>
+      </c>
+      <c r="H26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="G27">
+        <v>64</v>
+      </c>
+      <c r="H27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+      <c r="G28">
+        <v>57</v>
+      </c>
+      <c r="H28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="G29">
+        <v>87</v>
+      </c>
+      <c r="H29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+      <c r="G30">
+        <v>64</v>
+      </c>
+      <c r="H30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="259.2" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="G31">
+        <v>43</v>
+      </c>
+      <c r="H31" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F32" s="4">
+      <c r="E32" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4">
         <v>26</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H32" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F33" s="7">
+        <v>76</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7">
         <v>455</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" ht="134.55000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="134.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="7">
+        <v>80</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7">
         <v>13</v>
       </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H34" s="19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F35" s="7">
+        <v>81</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7">
         <v>22</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H35" s="19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>103</v>
+        <v>82</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F36" s="7">
+        <v>92</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7">
         <v>40</v>
       </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="H36" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F37" s="7">
+        <v>85</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7">
         <v>14</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="H37" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F38" s="7">
+        <v>94</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7">
         <v>375</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H38" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F39" s="7">
+        <v>89</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7">
         <v>9</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H39" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F40" s="7">
+        <v>97</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7">
         <v>13</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H40" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>123</v>
+        <v>99</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F41" s="7">
+        <v>101</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7">
         <v>20</v>
       </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H41" s="16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F42" s="7">
+        <v>104</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7">
         <v>13</v>
       </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H42" s="16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F43" s="7">
+        <v>106</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7">
         <v>19</v>
       </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H43" s="16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F44" s="7">
+        <v>109</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7">
         <v>24</v>
       </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H44" s="16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F45" s="7">
+        <v>113</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7">
         <v>20</v>
       </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H45" s="16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F46" s="10">
+        <v>116</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="21"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10">
         <v>40</v>
       </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H46" s="20" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>151</v>
+        <v>121</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="D47" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="G47" s="17">
+        <v>185</v>
+      </c>
+      <c r="G47" s="22">
         <v>20</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="203" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="D48" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="G48" s="17">
+        <v>186</v>
+      </c>
+      <c r="G48" s="22">
         <v>22</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="D49" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="G49" s="17">
+        <v>187</v>
+      </c>
+      <c r="G49" s="22">
         <v>27</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="203" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="D50" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="G50" s="17">
+        <v>187</v>
+      </c>
+      <c r="G50" s="22">
         <v>16</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="D51" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="G51" s="17">
+        <v>188</v>
+      </c>
+      <c r="G51" s="22">
         <v>22</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="145" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="D52" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="G52" s="17">
+        <v>189</v>
+      </c>
+      <c r="G52" s="22">
         <v>50</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="174" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="D53" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="G53" s="17">
+        <v>190</v>
+      </c>
+      <c r="G53" s="22">
         <v>50</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="D54" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="G54" s="17">
+        <v>191</v>
+      </c>
+      <c r="G54" s="22">
         <v>37</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="D55" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="G55" s="17">
+        <v>192</v>
+      </c>
+      <c r="G55" s="22">
         <v>62</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="174" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" t="s">
         <v>178</v>
       </c>
-      <c r="D56" t="s">
-        <v>208</v>
-      </c>
       <c r="E56" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="G56" s="17">
+        <v>193</v>
+      </c>
+      <c r="G56" s="22">
         <v>40</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="D57" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="E57" t="s">
-        <v>214</v>
-      </c>
-      <c r="G57" s="17">
+        <v>184</v>
+      </c>
+      <c r="G57" s="22">
         <v>26</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" t="s">
+        <v>180</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D58" t="s">
-        <v>210</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="G58" s="17">
+      <c r="G58" s="22">
         <v>32.5</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="D59" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="G59" s="17">
+        <v>194</v>
+      </c>
+      <c r="G59" s="22">
         <v>16.5</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="D60" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="G60" s="17">
+        <v>195</v>
+      </c>
+      <c r="G60" s="22">
         <v>52</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="203" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="D61" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="G61" s="17">
+        <v>184</v>
+      </c>
+      <c r="G61" s="22">
         <v>36</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" ht="157.19999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="77" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="157.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="77" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78"/>
     </row>
-    <row r="79" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80"/>
     </row>
-    <row r="81" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82"/>
     </row>
-    <row r="83" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84"/>
     </row>
-    <row r="85" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86"/>
     </row>
-    <row r="87" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88"/>
     </row>
-    <row r="89" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90"/>
     </row>
-    <row r="91" spans="1:1" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Items.xlsx
+++ b/Items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://viaucdk-my.sharepoint.com/personal/315231_viauc_dk/Documents/Dokumenter/GitHub/SEP3-Vibe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/802c1c42092691e2/Dokumenty/Uni/SEP/Git/SEP3-Vibe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{8307C4C3-7522-4854-8E23-AA87D72026EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF55BF4D-1B5E-4AF9-BE44-591A62475DDA}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{8307C4C3-7522-4854-8E23-AA87D72026EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB5408AE-1F63-476F-BE92-7E145A25902C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="261">
   <si>
     <t>Stella Drop Earrings</t>
   </si>
   <si>
     <t>gold-filled, Cubic Zirconia, 30mm long, handmade</t>
-  </si>
-  <si>
-    <t>stellaDropEarrings.png</t>
   </si>
   <si>
     <t>Allium Blue Green Sapphire</t>
@@ -1020,6 +1017,27 @@
   </si>
   <si>
     <t>1000x1000</t>
+  </si>
+  <si>
+    <t>s+D2:D16tellaDropEarrings.png</t>
+  </si>
+  <si>
+    <t>Jewelry</t>
+  </si>
+  <si>
+    <t>Clothes</t>
+  </si>
+  <si>
+    <t>Home Décor</t>
+  </si>
+  <si>
+    <t>Cosmetics</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1209,6 +1227,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1490,13 +1509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:A411"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="3.81640625" customWidth="1"/>
     <col min="2" max="2" width="32.453125" customWidth="1"/>
@@ -1507,31 +1526,37 @@
     <col min="8" max="8" width="77.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A1" s="15"/>
       <c r="B1" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>120</v>
-      </c>
       <c r="H1" s="15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="O1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1542,934 +1567,1201 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>254</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+      <c r="I2" t="s">
+        <v>255</v>
+      </c>
+      <c r="O2">
+        <v>25</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+      <c r="I3" t="s">
+        <v>255</v>
+      </c>
+      <c r="O3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+      <c r="I4" t="s">
+        <v>255</v>
+      </c>
+      <c r="O4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>243</v>
+      </c>
+      <c r="I5" t="s">
+        <v>255</v>
+      </c>
+      <c r="O5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6">
         <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+      <c r="I6" t="s">
+        <v>255</v>
+      </c>
+      <c r="O6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7">
         <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+      <c r="I7" t="s">
+        <v>255</v>
+      </c>
+      <c r="O7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8">
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>244</v>
+      </c>
+      <c r="I8" t="s">
+        <v>255</v>
+      </c>
+      <c r="O8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9">
         <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="I9" t="s">
+        <v>255</v>
+      </c>
+      <c r="O9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
       </c>
       <c r="G10">
         <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+      <c r="I10" t="s">
+        <v>255</v>
+      </c>
+      <c r="O10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
       </c>
       <c r="G11">
         <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+      <c r="I11" t="s">
+        <v>255</v>
+      </c>
+      <c r="O11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
       </c>
       <c r="G12">
         <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>246</v>
+      </c>
+      <c r="I12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
       </c>
       <c r="G13">
         <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>244</v>
+      </c>
+      <c r="I13" t="s">
+        <v>255</v>
+      </c>
+      <c r="O13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
       </c>
       <c r="G14">
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+      <c r="I14" t="s">
+        <v>255</v>
+      </c>
+      <c r="O14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
       </c>
       <c r="G15">
         <v>80</v>
       </c>
       <c r="H15" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>241</v>
+      </c>
+      <c r="I15" t="s">
+        <v>255</v>
+      </c>
+      <c r="O15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
       </c>
       <c r="G16">
         <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="127.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>244</v>
+      </c>
+      <c r="I16" t="s">
+        <v>255</v>
+      </c>
+      <c r="O16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="127.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G17">
         <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+      <c r="I17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="88.5" x14ac:dyDescent="0.75">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G18">
         <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+      <c r="I18" t="s">
+        <v>256</v>
+      </c>
+      <c r="O18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="118" x14ac:dyDescent="0.75">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G19">
         <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="I19" t="s">
+        <v>256</v>
+      </c>
+      <c r="O19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G20">
         <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+      <c r="I20" t="s">
+        <v>256</v>
+      </c>
+      <c r="O20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="118" x14ac:dyDescent="0.75">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G21">
         <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+      <c r="I21" t="s">
+        <v>256</v>
+      </c>
+      <c r="O21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="88.5" x14ac:dyDescent="0.75">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G22">
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+      <c r="I22" t="s">
+        <v>256</v>
+      </c>
+      <c r="O22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G23">
         <v>45</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+      <c r="I23" t="s">
+        <v>256</v>
+      </c>
+      <c r="O23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="132.75" x14ac:dyDescent="0.75">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G24">
         <v>86</v>
       </c>
       <c r="H24" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+      <c r="I24" t="s">
+        <v>256</v>
+      </c>
+      <c r="O24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="118" x14ac:dyDescent="0.75">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G25">
         <v>23</v>
       </c>
       <c r="H25" t="s">
+        <v>210</v>
+      </c>
+      <c r="I25" t="s">
+        <v>256</v>
+      </c>
+      <c r="O25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="118" x14ac:dyDescent="0.75">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="G26">
         <v>43</v>
       </c>
       <c r="H26" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+      <c r="I26" t="s">
+        <v>256</v>
+      </c>
+      <c r="O26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G27">
         <v>64</v>
       </c>
       <c r="H27" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
+        <v>214</v>
+      </c>
+      <c r="I27" t="s">
+        <v>256</v>
+      </c>
+      <c r="O27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="162.25" x14ac:dyDescent="0.75">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G28">
         <v>57</v>
       </c>
       <c r="H28" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+      <c r="I28" t="s">
+        <v>256</v>
+      </c>
+      <c r="O28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G29">
         <v>87</v>
       </c>
       <c r="H29" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+      <c r="I29" t="s">
+        <v>256</v>
+      </c>
+      <c r="O29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="88.5" x14ac:dyDescent="0.75">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G30">
         <v>64</v>
       </c>
       <c r="H30" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>218</v>
+      </c>
+      <c r="I30" t="s">
+        <v>256</v>
+      </c>
+      <c r="O30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="148.25" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G31">
         <v>43</v>
       </c>
       <c r="H31" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+      <c r="I31" t="s">
+        <v>256</v>
+      </c>
+      <c r="O31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="132.75" x14ac:dyDescent="0.75">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4">
         <v>26</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="O32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="59" x14ac:dyDescent="0.75">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>77</v>
-      </c>
       <c r="D33" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7">
         <v>455</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="134.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="O33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="134.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="E34" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7">
         <v>13</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="O34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="132.75" x14ac:dyDescent="0.75">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7">
         <v>22</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+        <v>236</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="O35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="16" t="s">
-        <v>83</v>
-      </c>
       <c r="D36" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7">
         <v>40</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>237</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="O36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="59" x14ac:dyDescent="0.75">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="D37" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7">
         <v>14</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="O37">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="D38" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7">
         <v>375</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="O38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="D39" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7">
         <v>9</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="O39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="132.75" x14ac:dyDescent="0.75">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>98</v>
-      </c>
       <c r="D40" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7">
         <v>13</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="O40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="132.75" x14ac:dyDescent="0.75">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="D41" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="E41" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7">
         <v>20</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+      <c r="I41" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="O41">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7">
         <v>13</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="O42">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="D43" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7">
         <v>19</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+      <c r="I43" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="O43">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="D44" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7">
         <v>24</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+      <c r="I44" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="O44">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7">
         <v>20</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>231</v>
+      </c>
+      <c r="I45" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="O45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="89.25" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>117</v>
       </c>
       <c r="E46" s="21"/>
       <c r="F46" s="10"/>
@@ -2477,398 +2769,494 @@
         <v>40</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+        <v>232</v>
+      </c>
+      <c r="I46" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="O46">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="132.75" x14ac:dyDescent="0.75">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="14" t="s">
-        <v>122</v>
-      </c>
       <c r="D47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G47" s="22">
         <v>20</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="203" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="I47" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="O47">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="206.5" x14ac:dyDescent="0.75">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="D48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G48" s="22">
         <v>22</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="188.5" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+      <c r="I48" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="O48">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="191.75" x14ac:dyDescent="0.75">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="D49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G49" s="22">
         <v>27</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="203" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+      <c r="I49" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="O49">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="206.5" x14ac:dyDescent="0.75">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="D50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G50" s="22">
         <v>16</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+      <c r="I50" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="O50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="162.25" x14ac:dyDescent="0.75">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="D51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G51" s="22">
         <v>22</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="145" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="O51">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="D52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G52" s="22">
         <v>50</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="174" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+      <c r="I52" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="O52">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="162.25" x14ac:dyDescent="0.75">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="D53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G53" s="22">
         <v>50</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+      <c r="I53" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="O53">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="59" x14ac:dyDescent="0.75">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="D54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G54" s="22">
         <v>37</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+      <c r="I54" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="O54">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="D55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G55" s="22">
         <v>62</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="174" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+      <c r="I55" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="O55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="177" x14ac:dyDescent="0.75">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="D56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G56" s="22">
         <v>40</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="I56" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="O56">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="162.25" x14ac:dyDescent="0.75">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="D57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G57" s="22">
         <v>26</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+      <c r="I57" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="O57">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="132.75" x14ac:dyDescent="0.75">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="D58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G58" s="22">
         <v>32.5</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="O58">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="132.75" x14ac:dyDescent="0.75">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="D59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G59" s="22">
         <v>16.5</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+      <c r="I59" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="O59">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="88.5" x14ac:dyDescent="0.75">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="D60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G60" s="22">
         <v>52</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="203" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+      <c r="I60" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="O60">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="206.5" x14ac:dyDescent="0.75">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="D61" t="s">
+        <v>182</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="G61" s="22">
         <v>36</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" ht="157.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="77" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+      <c r="I61" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="O61">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="157.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="77" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A78"/>
     </row>
-    <row r="79" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A80"/>
     </row>
-    <row r="81" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A82"/>
     </row>
-    <row r="83" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A84"/>
     </row>
-    <row r="85" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A86"/>
     </row>
-    <row r="87" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A88"/>
     </row>
-    <row r="89" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A90"/>
     </row>
-    <row r="91" spans="1:1" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" s="10" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A91"/>
     </row>
   </sheetData>

--- a/Items.xlsx
+++ b/Items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/802c1c42092691e2/Dokumenty/Uni/SEP/Git/SEP3-Vibe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://viaucdk-my.sharepoint.com/personal/315231_viauc_dk/Documents/Dokumenter/GitHub/SEP3-Vibe/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{8307C4C3-7522-4854-8E23-AA87D72026EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB5408AE-1F63-476F-BE92-7E145A25902C}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1181,7 +1181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1227,7 +1227,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1511,11 +1510,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:A411"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.81640625" customWidth="1"/>
     <col min="2" max="2" width="32.453125" customWidth="1"/>
@@ -1526,7 +1525,7 @@
     <col min="8" max="8" width="77.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="15"/>
       <c r="B1" s="15" t="s">
         <v>117</v>
@@ -1556,7 +1555,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1591,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1620,7 +1619,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1649,7 +1648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1678,7 +1677,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1707,7 +1706,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1736,7 +1735,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1765,7 +1764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1794,7 +1793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1823,7 +1822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1852,7 +1851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1881,7 +1880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1910,7 +1909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1939,7 +1938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1968,7 +1967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1997,7 +1996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="127.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:15" ht="127.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2020,7 +2019,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2043,7 +2042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="118" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:15" ht="116" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2066,7 +2065,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="103.25" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2089,7 +2088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="118" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:15" ht="116" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2112,7 +2111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2135,7 +2134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="103.25" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2158,7 +2157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="132.75" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:15" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2181,7 +2180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="118" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:15" ht="116" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2204,7 +2203,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="118" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:15" ht="116" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2227,7 +2226,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="103.25" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2250,7 +2249,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="162.25" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:15" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2273,7 +2272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="103.25" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2296,7 +2295,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2319,7 +2318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="148.25" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="31" spans="1:15" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2342,7 +2341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="132.75" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:15" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2365,14 +2364,14 @@
       <c r="H32" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="I32" s="23" t="s">
+      <c r="I32" s="19" t="s">
         <v>257</v>
       </c>
       <c r="O32">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="59" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2395,14 +2394,14 @@
       <c r="H33" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="I33" s="23" t="s">
+      <c r="I33" s="19" t="s">
         <v>257</v>
       </c>
       <c r="O33">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="134.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:15" ht="134.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2425,14 +2424,14 @@
       <c r="H34" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="I34" s="23" t="s">
+      <c r="I34" s="19" t="s">
         <v>257</v>
       </c>
       <c r="O34">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="132.75" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:15" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2455,14 +2454,14 @@
       <c r="H35" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="I35" s="23" t="s">
+      <c r="I35" s="19" t="s">
         <v>257</v>
       </c>
       <c r="O35">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="103.25" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2485,14 +2484,14 @@
       <c r="H36" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="I36" s="23" t="s">
+      <c r="I36" s="19" t="s">
         <v>257</v>
       </c>
       <c r="O36">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="59" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2515,14 +2514,14 @@
       <c r="H37" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="I37" s="23" t="s">
+      <c r="I37" s="19" t="s">
         <v>257</v>
       </c>
       <c r="O37">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="103.25" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2545,14 +2544,14 @@
       <c r="H38" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="I38" s="23" t="s">
+      <c r="I38" s="19" t="s">
         <v>257</v>
       </c>
       <c r="O38">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2575,14 +2574,14 @@
       <c r="H39" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="I39" s="23" t="s">
+      <c r="I39" s="19" t="s">
         <v>257</v>
       </c>
       <c r="O39">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="132.75" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:15" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2605,14 +2604,14 @@
       <c r="H40" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="I40" s="23" t="s">
+      <c r="I40" s="19" t="s">
         <v>257</v>
       </c>
       <c r="O40">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="132.75" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:15" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2635,14 +2634,14 @@
       <c r="H41" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="I41" s="23" t="s">
+      <c r="I41" s="19" t="s">
         <v>257</v>
       </c>
       <c r="O41">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2662,14 +2661,14 @@
       <c r="H42" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="I42" s="23" t="s">
+      <c r="I42" s="19" t="s">
         <v>257</v>
       </c>
       <c r="O42">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="103.25" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2689,14 +2688,14 @@
       <c r="H43" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="I43" s="23" t="s">
+      <c r="I43" s="19" t="s">
         <v>257</v>
       </c>
       <c r="O43">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2716,14 +2715,14 @@
       <c r="H44" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="I44" s="23" t="s">
+      <c r="I44" s="19" t="s">
         <v>257</v>
       </c>
       <c r="O44">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="103.25" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2743,14 +2742,14 @@
       <c r="H45" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="I45" s="23" t="s">
+      <c r="I45" s="19" t="s">
         <v>257</v>
       </c>
       <c r="O45">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="89.25" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="46" spans="1:15" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2771,14 +2770,14 @@
       <c r="H46" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="I46" s="23" t="s">
+      <c r="I46" s="19" t="s">
         <v>257</v>
       </c>
       <c r="O46">
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="132.75" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:15" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2800,14 +2799,14 @@
       <c r="H47" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I47" s="23" t="s">
+      <c r="I47" s="19" t="s">
         <v>258</v>
       </c>
       <c r="O47">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="206.5" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:15" ht="203" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2829,14 +2828,14 @@
       <c r="H48" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I48" s="23" t="s">
+      <c r="I48" s="19" t="s">
         <v>258</v>
       </c>
       <c r="O48">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="191.75" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:15" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2858,14 +2857,14 @@
       <c r="H49" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I49" s="23" t="s">
+      <c r="I49" s="19" t="s">
         <v>258</v>
       </c>
       <c r="O49">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="206.5" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:15" ht="203" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2887,14 +2886,14 @@
       <c r="H50" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I50" s="23" t="s">
+      <c r="I50" s="19" t="s">
         <v>258</v>
       </c>
       <c r="O50">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="162.25" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:15" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2916,14 +2915,14 @@
       <c r="H51" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I51" s="23" t="s">
+      <c r="I51" s="19" t="s">
         <v>258</v>
       </c>
       <c r="O51">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="147.5" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:15" ht="145" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2945,14 +2944,14 @@
       <c r="H52" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I52" s="23" t="s">
+      <c r="I52" s="19" t="s">
         <v>258</v>
       </c>
       <c r="O52">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="162.25" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:15" ht="174" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2974,14 +2973,14 @@
       <c r="H53" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I53" s="23" t="s">
+      <c r="I53" s="19" t="s">
         <v>258</v>
       </c>
       <c r="O53">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="59" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3003,14 +3002,14 @@
       <c r="H54" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I54" s="23" t="s">
+      <c r="I54" s="19" t="s">
         <v>258</v>
       </c>
       <c r="O54">
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3032,14 +3031,14 @@
       <c r="H55" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I55" s="23" t="s">
+      <c r="I55" s="19" t="s">
         <v>258</v>
       </c>
       <c r="O55">
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="177" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:15" ht="174" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3061,14 +3060,14 @@
       <c r="H56" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I56" s="23" t="s">
+      <c r="I56" s="19" t="s">
         <v>258</v>
       </c>
       <c r="O56">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="162.25" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:15" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3090,14 +3089,14 @@
       <c r="H57" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I57" s="23" t="s">
+      <c r="I57" s="19" t="s">
         <v>258</v>
       </c>
       <c r="O57">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="132.75" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:15" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3119,14 +3118,14 @@
       <c r="H58" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I58" s="23" t="s">
+      <c r="I58" s="19" t="s">
         <v>258</v>
       </c>
       <c r="O58">
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="132.75" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:15" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3148,14 +3147,14 @@
       <c r="H59" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I59" s="23" t="s">
+      <c r="I59" s="19" t="s">
         <v>258</v>
       </c>
       <c r="O59">
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3177,14 +3176,14 @@
       <c r="H60" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I60" s="23" t="s">
+      <c r="I60" s="19" t="s">
         <v>258</v>
       </c>
       <c r="O60">
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="206.5" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:15" ht="203" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3206,57 +3205,57 @@
       <c r="H61" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I61" s="23" t="s">
+      <c r="I61" s="19" t="s">
         <v>258</v>
       </c>
       <c r="O61">
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="157.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="77" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:1" ht="157.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="77" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78"/>
     </row>
-    <row r="79" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80"/>
     </row>
-    <row r="81" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82"/>
     </row>
-    <row r="83" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84"/>
     </row>
-    <row r="85" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86"/>
     </row>
-    <row r="87" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88"/>
     </row>
-    <row r="89" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90"/>
     </row>
-    <row r="91" spans="1:1" s="10" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="91" spans="1:1" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91"/>
     </row>
   </sheetData>
